--- a/inferences/jesuitas-entrada-full.xlsx
+++ b/inferences/jesuitas-entrada-full.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet_name_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet_name_1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -501,11 +501,7 @@
           <t>Landeck, Tirol</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q494299"}}</t>
-        </is>
-      </c>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -538,11 +534,7 @@
           <t>Domfront, diocese de Mans</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q90"}}</t>
-        </is>
-      </c>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -577,7 +569,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[JRC Entrou em Landsberg, Alemanha segundo "http://www.conimbricenses.org/encyclopedia/aigenler-adam/"] extra_info: {"value": {"comment": "Golvers, 2019 @wikidata:Q39793", "original": "?"}}</t>
+          <t>[JRC Entrou em Landsberg, Alemanha segundo "http://www.conimbricenses.org/encyclopedia/aigenler-adam/"]</t>
         </is>
       </c>
     </row>
@@ -678,11 +670,7 @@
           <t>Ilha de S. Miguel, Açores</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q45412 Ver Brockey, p.230 cit. Carta de A.P. a Viteleschi, de Coimbra, 26 Agosto 1640", "original": "?"}}</t>
-        </is>
-      </c>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -748,11 +736,7 @@
           <t>Santarém</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q45412"}}</t>
-        </is>
-      </c>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -917,11 +901,7 @@
           <t>Nice</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 16731105"}, "value": {"comment": "@wikidata:Q490"}}</t>
-        </is>
-      </c>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -987,11 +967,7 @@
           <t>Sarzana</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q220"}}</t>
-        </is>
-      </c>
+      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1024,11 +1000,7 @@
           <t>Murcia, diocese de Cartagena</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q1461"}}</t>
-        </is>
-      </c>
+      <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1061,11 +1033,7 @@
           <t>Lyon</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q6397"}}</t>
-        </is>
-      </c>
+      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1098,11 +1066,7 @@
           <t>Pont-à-Mousson</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 16091026 ou 1607"}}</t>
-        </is>
-      </c>
+      <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1168,11 +1132,7 @@
           <t>Bruxelas</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q494299"}}</t>
-        </is>
-      </c>
+      <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1205,11 +1165,7 @@
           <t>Orte</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q220"}}</t>
-        </is>
-      </c>
+      <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1275,11 +1231,7 @@
           <t>Quintas, diocese de Braga</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q597"}}</t>
-        </is>
-      </c>
+      <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1312,11 +1264,7 @@
           <t>Como, Itália</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q9269"}}</t>
-        </is>
-      </c>
+      <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1349,11 +1297,7 @@
           <t>Macerata</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q220"}}</t>
-        </is>
-      </c>
+      <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1386,11 +1330,7 @@
           <t>Chieti, Abruzzi</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q220"}}</t>
-        </is>
-      </c>
+      <c r="G27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1423,11 +1363,7 @@
           <t>Reggio</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q220"}}</t>
-        </is>
-      </c>
+      <c r="G28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1460,11 +1396,7 @@
           <t>Bruges</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q162022", "original": "Malines"}}</t>
-        </is>
-      </c>
+      <c r="G29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1563,11 +1495,7 @@
           <t>Avignon</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q220", "original": "(Noviciado de Sant'Andrea al Quirinale)"}}</t>
-        </is>
-      </c>
+      <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1666,11 +1594,7 @@
           <t>Mondéjar, Guadalajara</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "? ou 1563?"}, "value": {"comment": "@wikidata:Q46940"}}</t>
-        </is>
-      </c>
+      <c r="G35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1703,11 +1627,7 @@
           <t>Pequim</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q90"}}</t>
-        </is>
-      </c>
+      <c r="G36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1769,11 +1689,7 @@
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "jovem fidalgo"}, "value": {"comment": "@wikidata:Q1171"}}</t>
-        </is>
-      </c>
+      <c r="G38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1806,11 +1722,7 @@
           <t>Nisa, diocese de Portalegre</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q179948"}}</t>
-        </is>
-      </c>
+      <c r="G39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1905,11 +1817,7 @@
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "entra para a China"}, "value": {"comment": "@wikidata:Q597", "original": "Lisboa, Arroios"}}</t>
-        </is>
-      </c>
+      <c r="G42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1942,11 +1850,7 @@
           <t>Porto</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 16630325"}, "value": {"comment": "@wikidata:Q45412"}}</t>
-        </is>
-      </c>
+      <c r="G43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -2012,11 +1916,7 @@
           <t>Campo Maior</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q2478280"}}</t>
-        </is>
-      </c>
+      <c r="G45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -2051,7 +1951,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>[Brockey diz "educated at the College of Coimbra" cap.6 nota 95, citando a carta ânua de 1656, Ajuda, 49-V.14:62v] extra_info: {"value": {"comment": "@wikidata:Q45412 Brockey, cap.6 n.95", "original": "?"}}</t>
+          <t>[Brockey diz "educated at the College of Coimbra" cap.6 nota 95, citando a carta ânua de 1656, Ajuda, 49-V.14:62v]</t>
         </is>
       </c>
     </row>
@@ -2086,11 +1986,7 @@
           <t>Alandroal</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q179948"}}</t>
-        </is>
-      </c>
+      <c r="G47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -2156,11 +2052,7 @@
           <t>Lisboa</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q45412 Segundo Dominguez &amp; O Neil, V.III,p.2961. Franco Imagem...Coimbra,II,4,c.36,p.575", "original": "?"}}</t>
-        </is>
-      </c>
+      <c r="G49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -2193,11 +2085,7 @@
           <t>Porto</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 17070718"}}</t>
-        </is>
-      </c>
+      <c r="G50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -2230,11 +2118,7 @@
           <t>Porto</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q1171"}}</t>
-        </is>
-      </c>
+      <c r="G51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -2267,11 +2151,7 @@
           <t>Mortágua, diocese de Coimbra</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q597", "original": "Lisboa, Arroios"}}</t>
-        </is>
-      </c>
+      <c r="G52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -2300,11 +2180,7 @@
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "antes de, nesta data agradece o geral por lhe ter permitido entrar na companhia"}}</t>
-        </is>
-      </c>
+      <c r="G53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -2337,11 +2213,7 @@
           <t>Lecce</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q2634"}}</t>
-        </is>
-      </c>
+      <c r="G54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -2374,11 +2246,7 @@
           <t>Herzogenburg</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "ou Viena @wikidata:Q131266 ou @wikidata:Q1741"}}</t>
-        </is>
-      </c>
+      <c r="G55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -2411,11 +2279,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "[\u00c1ustria] @wikidata:Q1741"}}</t>
-        </is>
-      </c>
+      <c r="G56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -2448,11 +2312,7 @@
           <t>Lituânia</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q216"}}</t>
-        </is>
-      </c>
+      <c r="G57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -2485,11 +2345,7 @@
           <t>Macerata</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q220"}}</t>
-        </is>
-      </c>
+      <c r="G58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -2522,11 +2378,7 @@
           <t>Porto</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 16931016 ou 16931021 ou 16930326"}, "value": {"comment": "@wikidata:Q45412"}}</t>
-        </is>
-      </c>
+      <c r="G59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -2559,11 +2411,7 @@
           <t>Moulins</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q90"}}</t>
-        </is>
-      </c>
+      <c r="G60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -2629,11 +2477,7 @@
           <t>Gaillac</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q7880"}}</t>
-        </is>
-      </c>
+      <c r="G62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -2699,11 +2543,7 @@
           <t>Namur</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "inscrito em Namur a 16600908"}, "value": {"comment": "@wikidata:Q173219"}}</t>
-        </is>
-      </c>
+      <c r="G64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -2769,11 +2609,7 @@
           <t>Lourinhã</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q14773"}}</t>
-        </is>
-      </c>
+      <c r="G66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -2806,11 +2642,7 @@
           <t>Lisboa</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q597"}}</t>
-        </is>
-      </c>
+      <c r="G67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -2843,11 +2675,7 @@
           <t>Lisboa</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 16690519"}, "value": {"comment": "@wikidata:Q45412"}}</t>
-        </is>
-      </c>
+      <c r="G68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -2876,11 +2704,7 @@
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q1171", "original": "Goa, \u00cdndia"}}</t>
-        </is>
-      </c>
+      <c r="G69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -2946,11 +2770,7 @@
           <t>Oleiros, diocese de Portalegre</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "Franco, 1717, p. 375, Sweet, 20216, p.27 @wikidata:Q45412"}}</t>
-        </is>
-      </c>
+      <c r="G71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -3049,11 +2869,7 @@
           <t>Casal, diocese de Viseu</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 16090502 reentroun em 1611 n\u00e3o se sabe onde"}, "value": {"comment": "@wikidata:Q45412 (Franco, 1719, t.II, p. 612)", "original": "?"}}</t>
-        </is>
-      </c>
+      <c r="G74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -3086,11 +2902,7 @@
           <t>Cortiços, diocese de Viseu</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q45412"}}</t>
-        </is>
-      </c>
+      <c r="G75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -3123,11 +2935,7 @@
           <t>Montemor-o-Velho, diocese de Coimbra</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q45412"}}</t>
-        </is>
-      </c>
+      <c r="G76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -3193,11 +3001,7 @@
           <t>Portalegre</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q597"}}</t>
-        </is>
-      </c>
+      <c r="G78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -3263,11 +3067,7 @@
           <t>Lavre, diocese de Évora</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "o cat\u00e1logo do Jap\u00e3o de 1697 diz 1675"}}</t>
-        </is>
-      </c>
+      <c r="G80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -3300,11 +3100,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q45"}}</t>
-        </is>
-      </c>
+      <c r="G81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -3337,11 +3133,7 @@
           <t>Brescia</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 16840127"}, "value": {"comment": "@wikidata:Q1449"}}</t>
-        </is>
-      </c>
+      <c r="G82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -3407,11 +3199,7 @@
           <t>Lisboa</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q597"}}</t>
-        </is>
-      </c>
+      <c r="G84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -3444,11 +3232,7 @@
           <t>Nice</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q490"}}</t>
-        </is>
-      </c>
+      <c r="G85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -3481,11 +3265,7 @@
           <t>Viana do Alentejo, diocese de Évora</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q179948"}}</t>
-        </is>
-      </c>
+      <c r="G86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -3551,11 +3331,7 @@
           <t>Quintela da Lapa</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q45412"}}</t>
-        </is>
-      </c>
+      <c r="G88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -3590,7 +3366,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>attaché d'ambassade extra_info: {"value": {"comment": "@wikidata:Q14773"}}</t>
+          <t>attaché d'ambassade</t>
         </is>
       </c>
     </row>
@@ -3658,11 +3434,7 @@
           <t>Coimbra</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q45412"}}</t>
-        </is>
-      </c>
+      <c r="G91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -3794,11 +3566,7 @@
           <t>Toreguia</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "Goa?"}}</t>
-        </is>
-      </c>
+      <c r="G95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
@@ -3831,11 +3599,7 @@
           <t>Lisboa</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "[Arroios Rodrigues, Hist\u00f3ria Da Companhia de Jesus Na Assist\u00eancia de Portugal v4:167] @wikidata:Q597"}}</t>
-        </is>
-      </c>
+      <c r="G96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -3868,11 +3632,7 @@
           <t>Palermo</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "[Sic\u00edlia] @wikidata:Q2656"}}</t>
-        </is>
-      </c>
+      <c r="G97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
@@ -4004,11 +3764,7 @@
           <t>Macau</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "pela segunda vez"}}</t>
-        </is>
-      </c>
+      <c r="G101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
@@ -4107,11 +3863,7 @@
           <t>Messina</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "[Sic\u00edlia] @wikidata:Q13666"}}</t>
-        </is>
-      </c>
+      <c r="G104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
@@ -4144,11 +3896,7 @@
           <t>San Clemente, diocese de Cuenca</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q471422"}}</t>
-        </is>
-      </c>
+      <c r="G105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
@@ -4280,11 +4028,7 @@
           <t>Arzila, diocese de Coimbra</t>
         </is>
       </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q179948"}}</t>
-        </is>
-      </c>
+      <c r="G109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
@@ -4317,11 +4061,7 @@
           <t>Alpedrinha, diocese da Guarda</t>
         </is>
       </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q45"}}</t>
-        </is>
-      </c>
+      <c r="G110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
@@ -4387,11 +4127,7 @@
           <t>Évora</t>
         </is>
       </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q1171"}}</t>
-        </is>
-      </c>
+      <c r="G112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
@@ -4424,11 +4160,7 @@
           <t>Laibach, Carniole</t>
         </is>
       </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "[\u00c1ustria] @wikidata:Q1741"}}</t>
-        </is>
-      </c>
+      <c r="G113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
@@ -4461,11 +4193,7 @@
           <t>Lucca</t>
         </is>
       </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q220", "original": "(Noviciado de Sant'Andrea al Quirinale)"}}</t>
-        </is>
-      </c>
+      <c r="G114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
@@ -4564,11 +4292,7 @@
           <t>Lisboa</t>
         </is>
       </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q597"}}</t>
-        </is>
-      </c>
+      <c r="G117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -4601,11 +4325,7 @@
           <t>Friuli</t>
         </is>
       </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "[\u00c1ustria] @wikidata:Q1741"}}</t>
-        </is>
-      </c>
+      <c r="G118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
@@ -4729,11 +4449,7 @@
       </c>
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="inlineStr"/>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "volta a ser recebido na Companhia"}}</t>
-        </is>
-      </c>
+      <c r="G122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
@@ -4766,11 +4482,7 @@
           <t>Fivizzano</t>
         </is>
       </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q220"}}</t>
-        </is>
-      </c>
+      <c r="G123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
@@ -4902,11 +4614,7 @@
           <t>Lisboa</t>
         </is>
       </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q1171"}}</t>
-        </is>
-      </c>
+      <c r="G127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
@@ -4972,11 +4680,7 @@
           <t>Coimbra</t>
         </is>
       </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q45412"}}</t>
-        </is>
-      </c>
+      <c r="G129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
@@ -5009,11 +4713,7 @@
           <t>Porto</t>
         </is>
       </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q45412"}}</t>
-        </is>
-      </c>
+      <c r="G130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
@@ -5046,11 +4746,7 @@
           <t>Augsburg</t>
         </is>
       </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q494299"}}</t>
-        </is>
-      </c>
+      <c r="G131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
@@ -5116,11 +4812,7 @@
           <t>Vila Franca do Campo, ilha de S. Miguel, Açores</t>
         </is>
       </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "entra como frade coadjutor"}, "value": {"comment": "suponho que na \u00cdndia"}}</t>
-        </is>
-      </c>
+      <c r="G133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
@@ -5153,11 +4845,7 @@
           <t>Vila Franca do Campo, ilha de S. Miguel, Açores</t>
         </is>
       </c>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "suponho que na \u00cdndia"}}</t>
-        </is>
-      </c>
+      <c r="G134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
@@ -5223,11 +4911,7 @@
           <t>Coimbra</t>
         </is>
       </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "[Arroios Rodrigues, Hist\u00f3ria Da Companhia de Jesus Na Assist\u00eancia de Portugal v4:167] @wikidata:Q597"}}</t>
-        </is>
-      </c>
+      <c r="G136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
@@ -5326,11 +5010,7 @@
           <t>Longobucco, Calábria</t>
         </is>
       </c>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q2634"}}</t>
-        </is>
-      </c>
+      <c r="G139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
@@ -5396,11 +5076,7 @@
           <t>Emmerich</t>
         </is>
       </c>
-      <c r="G141" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q31388", "original": "Tr\u00e8ves"}}</t>
-        </is>
-      </c>
+      <c r="G141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
@@ -5466,11 +5142,7 @@
           <t>Hou-kouang</t>
         </is>
       </c>
-      <c r="G143" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "Pequim?"}}</t>
-        </is>
-      </c>
+      <c r="G143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
@@ -5503,11 +5175,7 @@
           <t>Kwangtung</t>
         </is>
       </c>
-      <c r="G144" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 16950000"}, "value": {"comment": "@wikidata:Q14773"}}</t>
-        </is>
-      </c>
+      <c r="G144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
@@ -5573,11 +5241,7 @@
           <t>Bovalino, Itália</t>
         </is>
       </c>
-      <c r="G146" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q2634"}}</t>
-        </is>
-      </c>
+      <c r="G146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
@@ -5610,11 +5274,7 @@
           <t>Fano, Itália</t>
         </is>
       </c>
-      <c r="G147" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q220"}}</t>
-        </is>
-      </c>
+      <c r="G147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
@@ -5647,11 +5307,7 @@
           <t>Saluces, Piemonte</t>
         </is>
       </c>
-      <c r="G148" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q9269"}}</t>
-        </is>
-      </c>
+      <c r="G148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
@@ -5684,11 +5340,7 @@
           <t>Itália</t>
         </is>
       </c>
-      <c r="G149" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "G\u00e9nova?"}}</t>
-        </is>
-      </c>
+      <c r="G149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
@@ -5717,11 +5369,7 @@
         </is>
       </c>
       <c r="F150" t="inlineStr"/>
-      <c r="G150" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q9269"}}</t>
-        </is>
-      </c>
+      <c r="G150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
@@ -5754,11 +5402,7 @@
           <t>Lisboa</t>
         </is>
       </c>
-      <c r="G151" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q597"}}</t>
-        </is>
-      </c>
+      <c r="G151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
@@ -5791,11 +5435,7 @@
           <t>Rouen</t>
         </is>
       </c>
-      <c r="G152" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "16801225"}, "value": {"comment": "@wikidata:Q1479"}}</t>
-        </is>
-      </c>
+      <c r="G152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
@@ -5861,11 +5501,7 @@
           <t>Genneville, Calvados</t>
         </is>
       </c>
-      <c r="G154" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 16740907"}, "value": {"comment": "@wikidata:Q90"}}</t>
-        </is>
-      </c>
+      <c r="G154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
@@ -5898,11 +5534,7 @@
           <t>Volognes</t>
         </is>
       </c>
-      <c r="G155" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q90"}}</t>
-        </is>
-      </c>
+      <c r="G155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
@@ -5968,11 +5600,7 @@
           <t>Peggau</t>
         </is>
       </c>
-      <c r="G157" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "[\u00c1ustria] @wikidata:Q1741"}}</t>
-        </is>
-      </c>
+      <c r="G157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
@@ -6104,11 +5732,7 @@
           <t>Cantão</t>
         </is>
       </c>
-      <c r="G161" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "venu au service des P\u00e8res? recebido quatro meses antes da sua morte"}}</t>
-        </is>
-      </c>
+      <c r="G161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
@@ -6174,11 +5798,7 @@
           <t>Trébry</t>
         </is>
       </c>
-      <c r="G163" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "terceiro de 13 irm\u00e3os"}, "value": {"comment": "@wikidata:Q90"}}</t>
-        </is>
-      </c>
+      <c r="G163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
@@ -6211,11 +5831,7 @@
           <t>Bellegarde</t>
         </is>
       </c>
-      <c r="G164" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q40898"}}</t>
-        </is>
-      </c>
+      <c r="G164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
@@ -6248,11 +5864,7 @@
           <t>Verdun</t>
         </is>
       </c>
-      <c r="G165" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q40898"}}</t>
-        </is>
-      </c>
+      <c r="G165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
@@ -6285,11 +5897,7 @@
           <t>Compiègne</t>
         </is>
       </c>
-      <c r="G166" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q6397"}}</t>
-        </is>
-      </c>
+      <c r="G166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
@@ -6322,11 +5930,7 @@
           <t>Cuneo, Piemonte</t>
         </is>
       </c>
-      <c r="G167" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q9269"}}</t>
-        </is>
-      </c>
+      <c r="G167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
@@ -6359,11 +5963,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G168" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "f. diz 16720812"}, "value": {"comment": "@wikidata:Q216", "original": "Vilna"}}</t>
-        </is>
-      </c>
+      <c r="G168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
@@ -6396,11 +5996,7 @@
           <t>Valença</t>
         </is>
       </c>
-      <c r="G169" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q1171"}}</t>
-        </is>
-      </c>
+      <c r="G169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
@@ -6433,11 +6029,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G170" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q1171"}}</t>
-        </is>
-      </c>
+      <c r="G170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
@@ -6470,11 +6062,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G171" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q597"}}</t>
-        </is>
-      </c>
+      <c r="G171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
@@ -6507,11 +6095,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G172" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q45412"}}</t>
-        </is>
-      </c>
+      <c r="G172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
@@ -6544,11 +6128,7 @@
           <t>Issoudun</t>
         </is>
       </c>
-      <c r="G173" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q90"}}</t>
-        </is>
-      </c>
+      <c r="G173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
@@ -6614,11 +6194,7 @@
           <t>Valdemoro, diocese de Toledo</t>
         </is>
       </c>
-      <c r="G175" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "villarejo? @wikidata:Q929997"}}</t>
-        </is>
-      </c>
+      <c r="G175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
@@ -6750,11 +6326,7 @@
           <t>Crato</t>
         </is>
       </c>
-      <c r="G179" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q179948"}}</t>
-        </is>
-      </c>
+      <c r="G179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
@@ -6787,11 +6359,7 @@
           <t>Lisboa</t>
         </is>
       </c>
-      <c r="G180" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q45412"}}</t>
-        </is>
-      </c>
+      <c r="G180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
@@ -6824,11 +6392,7 @@
           <t>Mesão Frio, diocese do Porto</t>
         </is>
       </c>
-      <c r="G181" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "MMHM:p.219 (Diego de Mesquita)", "original": "?"}}</t>
-        </is>
-      </c>
+      <c r="G181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
@@ -6960,11 +6524,7 @@
           <t>Cerradas, diocese de Lisboa</t>
         </is>
       </c>
-      <c r="G185" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 12 Franco, A. (1717). p.916 \"Depois estudou no Collegio de Coimbra\""}, "value": {"comment": "@wikidata:Q597"}}</t>
-        </is>
-      </c>
+      <c r="G185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
@@ -7030,11 +6590,7 @@
           <t>Nápoles</t>
         </is>
       </c>
-      <c r="G187" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q2634"}}</t>
-        </is>
-      </c>
+      <c r="G187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
@@ -7067,11 +6623,7 @@
           <t>Lanhoso, diocese de Braga</t>
         </is>
       </c>
-      <c r="G188" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q597"}}</t>
-        </is>
-      </c>
+      <c r="G188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
@@ -7137,11 +6689,7 @@
           <t>Vimieiro, diocese de Évora</t>
         </is>
       </c>
-      <c r="G190" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q179948"}}</t>
-        </is>
-      </c>
+      <c r="G190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
@@ -7174,11 +6722,7 @@
           <t>Unhão, diocese de Braga</t>
         </is>
       </c>
-      <c r="G191" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q597"}}</t>
-        </is>
-      </c>
+      <c r="G191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
@@ -7310,11 +6854,7 @@
           <t>Hwating (Houa-t'ing), do Song-kiang fou, Kiangsu</t>
         </is>
       </c>
-      <c r="G195" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "era um letrado chin\u00eas que se tornou catequista e depois jesu\u00edta"}}</t>
-        </is>
-      </c>
+      <c r="G195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
@@ -7347,11 +6887,7 @@
           <t>Grand-Russey, diocese de Besançon</t>
         </is>
       </c>
-      <c r="G196" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q6397"}}</t>
-        </is>
-      </c>
+      <c r="G196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
@@ -7384,11 +6920,7 @@
           <t>Guimarães</t>
         </is>
       </c>
-      <c r="G197" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q597"}}</t>
-        </is>
-      </c>
+      <c r="G197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
@@ -7454,11 +6986,7 @@
           <t>Auxerre</t>
         </is>
       </c>
-      <c r="G199" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q40898"}}</t>
-        </is>
-      </c>
+      <c r="G199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
@@ -7491,11 +7019,7 @@
           <t>Châlons-en-Champagne</t>
         </is>
       </c>
-      <c r="G200" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q90"}}</t>
-        </is>
-      </c>
+      <c r="G200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
@@ -7528,11 +7052,7 @@
           <t>Linz</t>
         </is>
       </c>
-      <c r="G201" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q485294"}}</t>
-        </is>
-      </c>
+      <c r="G201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
@@ -7565,11 +7085,7 @@
           <t>Douai</t>
         </is>
       </c>
-      <c r="G202" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q173219"}}</t>
-        </is>
-      </c>
+      <c r="G202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
@@ -7635,11 +7151,7 @@
           <t>Rouen</t>
         </is>
       </c>
-      <c r="G204" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q90"}}</t>
-        </is>
-      </c>
+      <c r="G204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
@@ -7672,11 +7184,7 @@
           <t>Nanquim</t>
         </is>
       </c>
-      <c r="G205" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q956"}}</t>
-        </is>
-      </c>
+      <c r="G205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
@@ -7709,11 +7217,7 @@
           <t>Anobra, diocese de Coimbra</t>
         </is>
       </c>
-      <c r="G206" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q45412"}}</t>
-        </is>
-      </c>
+      <c r="G206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
@@ -7779,11 +7283,7 @@
           <t>Semide, diocese de Coimbra</t>
         </is>
       </c>
-      <c r="G208" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q45412"}}</t>
-        </is>
-      </c>
+      <c r="G208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
@@ -7816,11 +7316,7 @@
           <t>Moura, diocese de Évora</t>
         </is>
       </c>
-      <c r="G209" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q1171"}}</t>
-        </is>
-      </c>
+      <c r="G209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
@@ -7886,11 +7382,7 @@
           <t>Pequim</t>
         </is>
       </c>
-      <c r="G211" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q956"}}</t>
-        </is>
-      </c>
+      <c r="G211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
@@ -7923,11 +7415,7 @@
           <t>Mourières, perto d'Avignon</t>
         </is>
       </c>
-      <c r="G212" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q6397"}}</t>
-        </is>
-      </c>
+      <c r="G212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
@@ -7960,11 +7448,7 @@
           <t>Rouen</t>
         </is>
       </c>
-      <c r="G213" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q90"}}</t>
-        </is>
-      </c>
+      <c r="G213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
@@ -7997,11 +7481,7 @@
           <t>Diocese de Nevers</t>
         </is>
       </c>
-      <c r="G214" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q90"}}</t>
-        </is>
-      </c>
+      <c r="G214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
@@ -8034,11 +7514,7 @@
           <t>Pequim</t>
         </is>
       </c>
-      <c r="G215" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q90"}}</t>
-        </is>
-      </c>
+      <c r="G215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
@@ -8071,11 +7547,7 @@
           <t>Segno, diocese de Trento</t>
         </is>
       </c>
-      <c r="G216" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q494299"}}</t>
-        </is>
-      </c>
+      <c r="G216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
@@ -8108,11 +7580,7 @@
           <t>Guarda</t>
         </is>
       </c>
-      <c r="G217" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q597", "original": "Lisboa, Arroios"}}</t>
-        </is>
-      </c>
+      <c r="G217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
@@ -8145,11 +7613,7 @@
           <t>Oliveira de Frades, diocese de Viseu</t>
         </is>
       </c>
-      <c r="G218" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q45412"}}</t>
-        </is>
-      </c>
+      <c r="G218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
@@ -8281,11 +7745,7 @@
           <t>Pitthem, Bélgica</t>
         </is>
       </c>
-      <c r="G222" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q162022", "original": "Malines"}}</t>
-        </is>
-      </c>
+      <c r="G222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
@@ -8318,11 +7778,7 @@
           <t>Florença</t>
         </is>
       </c>
-      <c r="G223" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q220", "original": "(Noviciado de Sant'Andrea al Quirinale)"}}</t>
-        </is>
-      </c>
+      <c r="G223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
@@ -8421,11 +7877,7 @@
           <t>Évora</t>
         </is>
       </c>
-      <c r="G226" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 1567"}}</t>
-        </is>
-      </c>
+      <c r="G226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
@@ -8458,11 +7910,7 @@
           <t>Montemor-o-Velho, diocese de Coimbra</t>
         </is>
       </c>
-      <c r="G227" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q1171"}}</t>
-        </is>
-      </c>
+      <c r="G227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
@@ -8528,11 +7976,7 @@
           <t>Génova</t>
         </is>
       </c>
-      <c r="G229" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q1449"}}</t>
-        </is>
-      </c>
+      <c r="G229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
@@ -8565,11 +8009,7 @@
           <t>Falkenberg, Silésia</t>
         </is>
       </c>
-      <c r="G230" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "[Rep\u00fablica Checa] @wikidata:Q14960"}}</t>
-        </is>
-      </c>
+      <c r="G230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
@@ -8635,11 +8075,7 @@
           <t>Palermo</t>
         </is>
       </c>
-      <c r="G232" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q2634"}}</t>
-        </is>
-      </c>
+      <c r="G232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
@@ -8705,11 +8141,7 @@
           <t>Badia di Farfa</t>
         </is>
       </c>
-      <c r="G234" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q220"}}</t>
-        </is>
-      </c>
+      <c r="G234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
@@ -8775,11 +8207,7 @@
           <t>Nápoles</t>
         </is>
       </c>
-      <c r="G236" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q2634"}}</t>
-        </is>
-      </c>
+      <c r="G236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
@@ -8845,11 +8273,7 @@
           <t>Génova</t>
         </is>
       </c>
-      <c r="G238" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q1449"}}</t>
-        </is>
-      </c>
+      <c r="G238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
@@ -8915,11 +8339,7 @@
           <t>Bolonha</t>
         </is>
       </c>
-      <c r="G240" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q220"}}</t>
-        </is>
-      </c>
+      <c r="G240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
@@ -9117,11 +8537,7 @@
           <t>Lamego</t>
         </is>
       </c>
-      <c r="G246" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "se for mesmo ele"}}</t>
-        </is>
-      </c>
+      <c r="G246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
@@ -9220,11 +8636,7 @@
           <t>Ilhas</t>
         </is>
       </c>
-      <c r="G249" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q597"}}</t>
-        </is>
-      </c>
+      <c r="G249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
@@ -9290,11 +8702,7 @@
           <t>Macau</t>
         </is>
       </c>
-      <c r="G251" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q8686"}}</t>
-        </is>
-      </c>
+      <c r="G251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
@@ -9360,11 +8768,7 @@
           <t>Macau</t>
         </is>
       </c>
-      <c r="G253" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "cerca de"}, "value": {"comment": "@wikidata:Q17"}}</t>
-        </is>
-      </c>
+      <c r="G253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
@@ -9397,11 +8801,7 @@
           <t>Macau</t>
         </is>
       </c>
-      <c r="G254" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "ILOC"}}</t>
-        </is>
-      </c>
+      <c r="G254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
@@ -9467,11 +8867,7 @@
           <t>Ilha do Faial, Açores</t>
         </is>
       </c>
-      <c r="G256" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q45412 \"\"\"Franco, Imagem...Coimbra, v.2 p.616; Barbosa Machado, v.3\"\"\"", "original": "?"}}</t>
-        </is>
-      </c>
+      <c r="G256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
@@ -9636,11 +9032,7 @@
           <t>Lisboa</t>
         </is>
       </c>
-      <c r="G261" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q1171"}}</t>
-        </is>
-      </c>
+      <c r="G261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
@@ -9673,11 +9065,7 @@
           <t>Ponte de Lima, diocese de Braga</t>
         </is>
       </c>
-      <c r="G262" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q45412"}}</t>
-        </is>
-      </c>
+      <c r="G262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
@@ -9743,11 +9131,7 @@
           <t>Villanueva de Barcarrota, diocese de Badajoz</t>
         </is>
       </c>
-      <c r="G264" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "j\u00e1 \u00e9 padre"}, "value": {"comment": "@wikidata:Q45412"}}</t>
-        </is>
-      </c>
+      <c r="G264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
@@ -9780,11 +9164,7 @@
           <t>Arganil, diocese de Coimbra</t>
         </is>
       </c>
-      <c r="G265" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "Franco, Imagem...Lisboa, 1717, p.577", "original": "?"}}</t>
-        </is>
-      </c>
+      <c r="G265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="inlineStr">
@@ -9850,11 +9230,7 @@
           <t>Lousã, diocese de Coimbra</t>
         </is>
       </c>
-      <c r="G267" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q45412"}}</t>
-        </is>
-      </c>
+      <c r="G267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="inlineStr">
@@ -9920,11 +9296,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G269" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q1171"}}</t>
-        </is>
-      </c>
+      <c r="G269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="inlineStr">
@@ -10056,11 +9428,7 @@
           <t>Lisboa</t>
         </is>
       </c>
-      <c r="G273" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "com 14 anos"}, "value": {"comment": "? @wikidata:Q1171"}}</t>
-        </is>
-      </c>
+      <c r="G273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="inlineStr">
@@ -10126,11 +9494,7 @@
           <t>Macau</t>
         </is>
       </c>
-      <c r="G275" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q14773"}}</t>
-        </is>
-      </c>
+      <c r="G275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="inlineStr">
@@ -10163,11 +9527,7 @@
           <t>Polónia Maior</t>
         </is>
       </c>
-      <c r="G276" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q31487"}}</t>
-        </is>
-      </c>
+      <c r="G276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="inlineStr">
@@ -10233,11 +9593,7 @@
           <t>Bastia, Córsega</t>
         </is>
       </c>
-      <c r="G278" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q15121"}}</t>
-        </is>
-      </c>
+      <c r="G278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="inlineStr">
@@ -10270,11 +9626,7 @@
           <t>Remicourt, Vosges</t>
         </is>
       </c>
-      <c r="G279" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q40898"}}</t>
-        </is>
-      </c>
+      <c r="G279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="inlineStr">
@@ -10340,11 +9692,7 @@
           <t>Kiangnan</t>
         </is>
       </c>
-      <c r="G281" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 17401120"}}</t>
-        </is>
-      </c>
+      <c r="G281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="inlineStr">
@@ -10377,11 +9725,7 @@
           <t>Maastricht</t>
         </is>
       </c>
-      <c r="G282" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q162022", "original": "Malines"}}</t>
-        </is>
-      </c>
+      <c r="G282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="inlineStr">
@@ -10414,11 +9758,7 @@
           <t>Hestrud, Hainaut</t>
         </is>
       </c>
-      <c r="G283" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q173219"}}</t>
-        </is>
-      </c>
+      <c r="G283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="inlineStr">
@@ -10451,11 +9791,7 @@
           <t>Nanquim</t>
         </is>
       </c>
-      <c r="G284" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "Macau?"}}</t>
-        </is>
-      </c>
+      <c r="G284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="inlineStr">
@@ -10521,11 +9857,7 @@
           <t>Diocese de Limoges</t>
         </is>
       </c>
-      <c r="G286" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "La date de son E. est aussi variable, 16 ou 26 sept. 1682., JS 134, 417 dit 16 sept. 1683."}}</t>
-        </is>
-      </c>
+      <c r="G286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="inlineStr">
@@ -10558,11 +9890,7 @@
           <t>Hopei</t>
         </is>
       </c>
-      <c r="G287" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "estava no noviciado nessa altura"}, "value": {"comment": "@wikidata:Q90"}}</t>
-        </is>
-      </c>
+      <c r="G287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="inlineStr">
@@ -10661,11 +9989,7 @@
           <t>Wrocław</t>
         </is>
       </c>
-      <c r="G290" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 16840918"}, "value": {"comment": "[Rep\u00fablica Checa] @wikidata:Q14960"}}</t>
-        </is>
-      </c>
+      <c r="G290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="inlineStr">
@@ -10731,11 +10055,7 @@
           <t>Wangen</t>
         </is>
       </c>
-      <c r="G292" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "[\u00c1ustria] @wikidata:Q1741"}}</t>
-        </is>
-      </c>
+      <c r="G292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="inlineStr">
@@ -10768,11 +10088,7 @@
           <t>Andancette, diocese de Vienne, Dauphiné</t>
         </is>
       </c>
-      <c r="G293" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 16800902"}}</t>
-        </is>
-      </c>
+      <c r="G293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="inlineStr">
@@ -10838,11 +10154,7 @@
           <t>Pedrógão Grande, perto de Coimbra</t>
         </is>
       </c>
-      <c r="G295" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q45412 Segundo Louis Buglio 1688", "original": "?"}}</t>
-        </is>
-      </c>
+      <c r="G295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="inlineStr">
@@ -10875,11 +10187,7 @@
           <t>Vidigueira, diocese de Évora</t>
         </is>
       </c>
-      <c r="G296" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q179948"}}</t>
-        </is>
-      </c>
+      <c r="G296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="inlineStr">
@@ -10912,11 +10220,7 @@
           <t>Viena</t>
         </is>
       </c>
-      <c r="G297" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "[\u00c1ustria] @wikidata:Q1741"}}</t>
-        </is>
-      </c>
+      <c r="G297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="inlineStr">
@@ -10945,11 +10249,7 @@
         </is>
       </c>
       <c r="F298" t="inlineStr"/>
-      <c r="G298" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q90"}}</t>
-        </is>
-      </c>
+      <c r="G298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="inlineStr">
@@ -11015,11 +10315,7 @@
           <t>Siracusa, Sicília</t>
         </is>
       </c>
-      <c r="G300" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q220"}}</t>
-        </is>
-      </c>
+      <c r="G300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="inlineStr">
@@ -11052,11 +10348,7 @@
           <t>Porto</t>
         </is>
       </c>
-      <c r="G301" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q1171"}}</t>
-        </is>
-      </c>
+      <c r="G301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="inlineStr">
@@ -11089,11 +10381,7 @@
           <t>Avis, diocese de Évora</t>
         </is>
       </c>
-      <c r="G302" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q668"}}</t>
-        </is>
-      </c>
+      <c r="G302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="inlineStr">
@@ -11126,11 +10414,7 @@
           <t>Corvaceira, diocese de Viseu</t>
         </is>
       </c>
-      <c r="G303" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "MMHM:p.8"}, "value": {"comment": "[Adicionado a partir de Franco, Imagem...Coimbra, II, 522] @wikidata:Q45412", "original": "?"}}</t>
-        </is>
-      </c>
+      <c r="G303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="inlineStr">
@@ -11163,11 +10447,7 @@
           <t>Castrofornos, diocese de Viseu</t>
         </is>
       </c>
-      <c r="G304" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q45412"}}</t>
-        </is>
-      </c>
+      <c r="G304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="inlineStr">
@@ -11200,11 +10480,7 @@
           <t>Portel, diocese de Évora</t>
         </is>
       </c>
-      <c r="G305" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "segundo Miguel Rodrigues Louren\u00e7o &amp; Ant\u00f3nio Guimar\u00e3es Pinto. (2023).p.31"}}</t>
-        </is>
-      </c>
+      <c r="G305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="inlineStr">
@@ -11237,11 +10513,7 @@
           <t>Compton, Somersetshire</t>
         </is>
       </c>
-      <c r="G306" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q220", "original": "(Noviciado de Sant'Andrea al Quirinale)"}}</t>
-        </is>
-      </c>
+      <c r="G306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="inlineStr">
@@ -11274,11 +10546,7 @@
           <t>Diocese de Bourges</t>
         </is>
       </c>
-      <c r="G307" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q90"}}</t>
-        </is>
-      </c>
+      <c r="G307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="inlineStr">
@@ -11344,11 +10612,7 @@
           <t>Bourg-en-Bresse</t>
         </is>
       </c>
-      <c r="G309" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q6397"}}</t>
-        </is>
-      </c>
+      <c r="G309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="inlineStr">
@@ -11414,11 +10678,7 @@
           <t>Udine</t>
         </is>
       </c>
-      <c r="G311" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q641"}}</t>
-        </is>
-      </c>
+      <c r="G311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="inlineStr">
@@ -11451,11 +10711,7 @@
           <t>Macerata</t>
         </is>
       </c>
-      <c r="G312" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "era j\u00e1 padre"}}</t>
-        </is>
-      </c>
+      <c r="G312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="inlineStr">
@@ -11488,11 +10744,7 @@
           <t>Pavia</t>
         </is>
       </c>
-      <c r="G313" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 16140507"}, "value": {"comment": "@wikidata:Q22052"}}</t>
-        </is>
-      </c>
+      <c r="G313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="inlineStr">
@@ -11591,11 +10843,7 @@
           <t>Nápoles</t>
         </is>
       </c>
-      <c r="G316" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q2634"}}</t>
-        </is>
-      </c>
+      <c r="G316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="inlineStr">
@@ -11628,11 +10876,7 @@
           <t>Nice</t>
         </is>
       </c>
-      <c r="G317" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q1449"}}</t>
-        </is>
-      </c>
+      <c r="G317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="inlineStr">
@@ -11764,11 +11008,7 @@
           <t>«Boius»</t>
         </is>
       </c>
-      <c r="G321" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 16991031"}}</t>
-        </is>
-      </c>
+      <c r="G321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="inlineStr">
@@ -11801,11 +11041,7 @@
           <t>Saint-Malo</t>
         </is>
       </c>
-      <c r="G322" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "inscreve-se a 8 de Julho"}}</t>
-        </is>
-      </c>
+      <c r="G322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="inlineStr">
@@ -11838,11 +11074,7 @@
           <t>Schilpario, Bergamo</t>
         </is>
       </c>
-      <c r="G323" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q100782"}}</t>
-        </is>
-      </c>
+      <c r="G323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="inlineStr">
@@ -11875,11 +11107,7 @@
           <t>Strambino, diocese de Ivrea, Piemonte</t>
         </is>
       </c>
-      <c r="G324" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q22052"}}</t>
-        </is>
-      </c>
+      <c r="G324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="inlineStr">
@@ -11912,11 +11140,7 @@
           <t>Ferrara</t>
         </is>
       </c>
-      <c r="G325" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "cerca de"}, "value": {"comment": "@wikidata:Q13362"}}</t>
-        </is>
-      </c>
+      <c r="G325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="inlineStr">
@@ -12015,11 +11239,7 @@
           <t>Taggia</t>
         </is>
       </c>
-      <c r="G328" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q220", "original": "(Noviciado de Sant'Andrea al Quirinale)"}}</t>
-        </is>
-      </c>
+      <c r="G328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="inlineStr">
@@ -12085,11 +11305,7 @@
           <t>Ferrara</t>
         </is>
       </c>
-      <c r="G330" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "? @wikidata:Q220"}}</t>
-        </is>
-      </c>
+      <c r="G330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="inlineStr">
@@ -12122,11 +11338,7 @@
           <t>Maglie, Itália</t>
         </is>
       </c>
-      <c r="G331" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q2634"}}</t>
-        </is>
-      </c>
+      <c r="G331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="inlineStr">
@@ -12159,11 +11371,7 @@
           <t>Reggio</t>
         </is>
       </c>
-      <c r="G332" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q2634"}}</t>
-        </is>
-      </c>
+      <c r="G332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" s="1" t="inlineStr">
@@ -12196,11 +11404,7 @@
           <t>Montecosaro</t>
         </is>
       </c>
-      <c r="G333" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q220"}}</t>
-        </is>
-      </c>
+      <c r="G333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" s="1" t="inlineStr">
@@ -12233,11 +11437,7 @@
           <t>Lucca</t>
         </is>
       </c>
-      <c r="G334" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q220"}}</t>
-        </is>
-      </c>
+      <c r="G334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" s="1" t="inlineStr">
@@ -12270,11 +11470,7 @@
           <t>Ponte en Valtellina</t>
         </is>
       </c>
-      <c r="G335" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q1449"}}</t>
-        </is>
-      </c>
+      <c r="G335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" s="1" t="inlineStr">
@@ -12307,11 +11503,7 @@
           <t>Caltanissetta, Sicília</t>
         </is>
       </c>
-      <c r="G336" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "[Sic\u00edlia] @wikidata:Q2656"}}</t>
-        </is>
-      </c>
+      <c r="G336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" s="1" t="inlineStr">
@@ -12344,11 +11536,7 @@
           <t>Bréscia</t>
         </is>
       </c>
-      <c r="G337" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q485294"}}</t>
-        </is>
-      </c>
+      <c r="G337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" s="1" t="inlineStr">
@@ -12383,7 +11571,7 @@
       </c>
       <c r="G338" t="inlineStr">
         <is>
-          <t>"https://roccadellacultura.it/opere-e-contenuti/la-spezieria-dei-gesuiti-di-novellara" extra_info: {"value": {"comment": "@wikidata:Q111218"}}</t>
+          <t>"https://roccadellacultura.it/opere-e-contenuti/la-spezieria-dei-gesuiti-di-novellara"</t>
         </is>
       </c>
     </row>
@@ -12418,11 +11606,7 @@
           <t>Cuneo, Piemonte</t>
         </is>
       </c>
-      <c r="G339" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q1449"}}</t>
-        </is>
-      </c>
+      <c r="G339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" s="1" t="inlineStr">
@@ -12488,11 +11672,7 @@
           <t>Cuneo, Piemonte</t>
         </is>
       </c>
-      <c r="G341" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q9269"}}</t>
-        </is>
-      </c>
+      <c r="G341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" s="1" t="inlineStr">
@@ -12525,11 +11705,7 @@
           <t>Palermo</t>
         </is>
       </c>
-      <c r="G342" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "[Sic\u00edlia] @wikidata:Q2656"}}</t>
-        </is>
-      </c>
+      <c r="G342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" s="1" t="inlineStr">
@@ -12562,11 +11738,7 @@
           <t>Milão</t>
         </is>
       </c>
-      <c r="G343" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q1449"}}</t>
-        </is>
-      </c>
+      <c r="G343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" s="1" t="inlineStr">
@@ -12599,11 +11771,7 @@
           <t>Florença</t>
         </is>
       </c>
-      <c r="G344" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q1449"}}</t>
-        </is>
-      </c>
+      <c r="G344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" s="1" t="inlineStr">
@@ -12636,11 +11804,7 @@
           <t>Vila Viçosa, diocese de Évora</t>
         </is>
       </c>
-      <c r="G345" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q45412"}}</t>
-        </is>
-      </c>
+      <c r="G345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" s="1" t="inlineStr">
@@ -12673,11 +11837,7 @@
           <t>Vila Real, diocese de Braga</t>
         </is>
       </c>
-      <c r="G346" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"original": "? Segundo Sch\u00fctte, p.1174"}}</t>
-        </is>
-      </c>
+      <c r="G346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" s="1" t="inlineStr">
@@ -12842,11 +12002,7 @@
           <t>Viena</t>
         </is>
       </c>
-      <c r="G351" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "[\u00c1ustria] @wikidata:Q1741"}}</t>
-        </is>
-      </c>
+      <c r="G351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" s="1" t="inlineStr">
@@ -12945,11 +12101,7 @@
           <t>Tulle</t>
         </is>
       </c>
-      <c r="G354" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q1479"}}</t>
-        </is>
-      </c>
+      <c r="G354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" s="1" t="inlineStr">
@@ -13015,11 +12167,7 @@
           <t>Marthon</t>
         </is>
       </c>
-      <c r="G356" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q1479"}}</t>
-        </is>
-      </c>
+      <c r="G356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" s="1" t="inlineStr">
@@ -13085,11 +12233,7 @@
           <t>Maastricht</t>
         </is>
       </c>
-      <c r="G358" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q162022", "original": "Malines"}}</t>
-        </is>
-      </c>
+      <c r="G358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" s="1" t="inlineStr">
@@ -13122,11 +12266,7 @@
           <t>Nijmegen</t>
         </is>
       </c>
-      <c r="G359" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q162022", "original": "Malines"}}</t>
-        </is>
-      </c>
+      <c r="G359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" s="1" t="inlineStr">
@@ -13159,11 +12299,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G360" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"original": "gallo-belge"}}</t>
-        </is>
-      </c>
+      <c r="G360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" s="1" t="inlineStr">
@@ -13221,11 +12357,7 @@
           <t>Salzkotten, diocese de Paderborn</t>
         </is>
       </c>
-      <c r="G362" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q31388", "original": "Tr\u00e8ves"}}</t>
-        </is>
-      </c>
+      <c r="G362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" s="1" t="inlineStr">
@@ -13258,11 +12390,7 @@
           <t>Navalafuente, diocese de Toledo</t>
         </is>
       </c>
-      <c r="G363" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q46940", "original": "de Henares"}}</t>
-        </is>
-      </c>
+      <c r="G363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" s="1" t="inlineStr">
@@ -13295,11 +12423,7 @@
           <t>Macau</t>
         </is>
       </c>
-      <c r="G364" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "no noviciado"}, "value": {"comment": "@wikidata:Q1346617", "original": "(Chao-tcheou)"}}</t>
-        </is>
-      </c>
+      <c r="G364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" s="1" t="inlineStr">
@@ -13332,11 +12456,7 @@
           <t>Montdidier</t>
         </is>
       </c>
-      <c r="G365" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "Fran\u00e7a? @wikidata:Q142"}}</t>
-        </is>
-      </c>
+      <c r="G365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" s="1" t="inlineStr">
@@ -13435,11 +12555,7 @@
           <t>Hukwang</t>
         </is>
       </c>
-      <c r="G368" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "vice prov\u00edncia de Portugal"}}</t>
-        </is>
-      </c>
+      <c r="G368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" s="1" t="inlineStr">
@@ -13472,11 +12588,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G369" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "admitido na Companhia depois de torturado pela f\u00e9?"}}</t>
-        </is>
-      </c>
+      <c r="G369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" s="1" t="inlineStr">
@@ -13542,11 +12654,7 @@
           <t>Sieradz</t>
         </is>
       </c>
-      <c r="G371" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q31487"}}</t>
-        </is>
-      </c>
+      <c r="G371" t="inlineStr"/>
     </row>
     <row r="372">
       <c r="A372" s="1" t="inlineStr">
@@ -13612,11 +12720,7 @@
           <t>Dunkirk</t>
         </is>
       </c>
-      <c r="G373" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q162022", "original": "Malines"}}</t>
-        </is>
-      </c>
+      <c r="G373" t="inlineStr"/>
     </row>
     <row r="374">
       <c r="A374" s="1" t="inlineStr">
@@ -13649,11 +12753,7 @@
           <t>Landsberg-am-Lech, Baviera</t>
         </is>
       </c>
-      <c r="G374" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q494299"}}</t>
-        </is>
-      </c>
+      <c r="G374" t="inlineStr"/>
     </row>
     <row r="375">
       <c r="A375" s="1" t="inlineStr">
@@ -13688,7 +12788,7 @@
       </c>
       <c r="G375" t="inlineStr">
         <is>
-          <t>admitido na companhia extra_info: {"value": {"comment": "@wikidata:Q12995"}}</t>
+          <t>admitido na companhia</t>
         </is>
       </c>
     </row>
@@ -13725,7 +12825,7 @@
       </c>
       <c r="G376" t="inlineStr">
         <is>
-          <t>entra no noviciado extra_info: {"value": {"comment": "@wikidata:Q162022", "original": "Malines"}}</t>
+          <t>entra no noviciado</t>
         </is>
       </c>
     </row>
@@ -13958,11 +13058,7 @@
           <t>Meãs do Campo, diocese de Coimbra</t>
         </is>
       </c>
-      <c r="G383" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q45412"}}</t>
-        </is>
-      </c>
+      <c r="G383" t="inlineStr"/>
     </row>
     <row r="384">
       <c r="A384" s="1" t="inlineStr">
@@ -14028,11 +13124,7 @@
           <t>Norcia, diocese de Spoleto</t>
         </is>
       </c>
-      <c r="G385" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q220"}}</t>
-        </is>
-      </c>
+      <c r="G385" t="inlineStr"/>
     </row>
     <row r="386">
       <c r="A386" s="1" t="inlineStr">
@@ -14127,11 +13219,7 @@
           <t>Hweichow, Houei-tcheou fou, Anhwei, Kiang-nan</t>
         </is>
       </c>
-      <c r="G388" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q956"}}</t>
-        </is>
-      </c>
+      <c r="G388" t="inlineStr"/>
     </row>
     <row r="389">
       <c r="A389" s="1" t="inlineStr">
@@ -14230,11 +13318,7 @@
           <t>Longuyon, diocese de Trier (Meurthe-et-Moselle)</t>
         </is>
       </c>
-      <c r="G391" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q40898"}}</t>
-        </is>
-      </c>
+      <c r="G391" t="inlineStr"/>
     </row>
     <row r="392">
       <c r="A392" s="1" t="inlineStr">
@@ -14267,11 +13351,7 @@
           <t>Paris</t>
         </is>
       </c>
-      <c r="G392" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q90"}}</t>
-        </is>
-      </c>
+      <c r="G392" t="inlineStr"/>
     </row>
     <row r="393">
       <c r="A393" s="1" t="inlineStr">
@@ -14304,11 +13384,7 @@
           <t>Compiègne</t>
         </is>
       </c>
-      <c r="G393" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q6397"}}</t>
-        </is>
-      </c>
+      <c r="G393" t="inlineStr"/>
     </row>
     <row r="394">
       <c r="A394" s="1" t="inlineStr">
@@ -14440,11 +13516,7 @@
           <t>Niederberg</t>
         </is>
       </c>
-      <c r="G397" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q31388", "original": "Tr\u00e8ves"}}</t>
-        </is>
-      </c>
+      <c r="G397" t="inlineStr"/>
     </row>
     <row r="398">
       <c r="A398" s="1" t="inlineStr">
@@ -14510,11 +13582,7 @@
           <t>Wikłów</t>
         </is>
       </c>
-      <c r="G399" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "[\u00c1ustria] @wikidata:Q1741"}}</t>
-        </is>
-      </c>
+      <c r="G399" t="inlineStr"/>
     </row>
     <row r="400">
       <c r="A400" s="1" t="inlineStr">
@@ -14580,11 +13648,7 @@
           <t>Diocese de Vienne</t>
         </is>
       </c>
-      <c r="G401" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 16960918"}}</t>
-        </is>
-      </c>
+      <c r="G401" t="inlineStr"/>
     </row>
     <row r="402">
       <c r="A402" s="1" t="inlineStr">
@@ -14650,11 +13714,7 @@
           <t>Diocese de Saint-Flour</t>
         </is>
       </c>
-      <c r="G403" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q7880"}}</t>
-        </is>
-      </c>
+      <c r="G403" t="inlineStr"/>
     </row>
     <row r="404">
       <c r="A404" s="1" t="inlineStr">
@@ -14753,11 +13813,7 @@
           <t>Arras</t>
         </is>
       </c>
-      <c r="G406" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q90"}}</t>
-        </is>
-      </c>
+      <c r="G406" t="inlineStr"/>
     </row>
     <row r="407">
       <c r="A407" s="1" t="inlineStr">
@@ -14823,11 +13879,7 @@
           <t>Pequim</t>
         </is>
       </c>
-      <c r="G408" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "morre no pr\u00f3prio dia"}, "value": {"comment": "@wikidata:Q956"}}</t>
-        </is>
-      </c>
+      <c r="G408" t="inlineStr"/>
     </row>
     <row r="409">
       <c r="A409" s="1" t="inlineStr">
@@ -14860,11 +13912,7 @@
           <t>Boucagnères (palácio do marquês de Grammont), Gasconha</t>
         </is>
       </c>
-      <c r="G409" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q7880"}}</t>
-        </is>
-      </c>
+      <c r="G409" t="inlineStr"/>
     </row>
     <row r="410">
       <c r="A410" s="1" t="inlineStr">
@@ -14897,11 +13945,7 @@
           <t>Mons</t>
         </is>
       </c>
-      <c r="G410" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q173219"}}</t>
-        </is>
-      </c>
+      <c r="G410" t="inlineStr"/>
     </row>
     <row r="411">
       <c r="A411" s="1" t="inlineStr">
@@ -14934,11 +13978,7 @@
           <t>Istres</t>
         </is>
       </c>
-      <c r="G411" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q6397"}}</t>
-        </is>
-      </c>
+      <c r="G411" t="inlineStr"/>
     </row>
     <row r="412">
       <c r="A412" s="1" t="inlineStr">
@@ -14971,11 +14011,7 @@
           <t>Paris</t>
         </is>
       </c>
-      <c r="G412" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q90"}}</t>
-        </is>
-      </c>
+      <c r="G412" t="inlineStr"/>
     </row>
     <row r="413">
       <c r="A413" s="1" t="inlineStr">
@@ -15008,11 +14044,7 @@
           <t>Colmar</t>
         </is>
       </c>
-      <c r="G413" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q90"}}</t>
-        </is>
-      </c>
+      <c r="G413" t="inlineStr"/>
     </row>
     <row r="414">
       <c r="A414" s="1" t="inlineStr">
@@ -15177,11 +14209,7 @@
           <t>Diocese de S. Pol de Léon, Bretanha</t>
         </is>
       </c>
-      <c r="G418" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q90"}}</t>
-        </is>
-      </c>
+      <c r="G418" t="inlineStr"/>
     </row>
     <row r="419">
       <c r="A419" s="1" t="inlineStr">
@@ -15214,11 +14242,7 @@
           <t>Ath, Hainaut</t>
         </is>
       </c>
-      <c r="G419" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q173219"}}</t>
-        </is>
-      </c>
+      <c r="G419" t="inlineStr"/>
     </row>
     <row r="420">
       <c r="A420" s="1" t="inlineStr">
@@ -15251,11 +14275,7 @@
           <t>Diocese de Lyon</t>
         </is>
       </c>
-      <c r="G420" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "Lyon? @wikidata:Q456"}}</t>
-        </is>
-      </c>
+      <c r="G420" t="inlineStr"/>
     </row>
     <row r="421">
       <c r="A421" s="1" t="inlineStr">
@@ -15288,11 +14308,7 @@
           <t>China</t>
         </is>
       </c>
-      <c r="G421" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q14773"}}</t>
-        </is>
-      </c>
+      <c r="G421" t="inlineStr"/>
     </row>
     <row r="422">
       <c r="A422" s="1" t="inlineStr">
@@ -15325,11 +14341,7 @@
           <t>Lille</t>
         </is>
       </c>
-      <c r="G422" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q193826"}}</t>
-        </is>
-      </c>
+      <c r="G422" t="inlineStr"/>
     </row>
     <row r="423">
       <c r="A423" s="1" t="inlineStr">
@@ -15362,11 +14374,7 @@
           <t>Dole, Jura</t>
         </is>
       </c>
-      <c r="G423" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q6397"}}</t>
-        </is>
-      </c>
+      <c r="G423" t="inlineStr"/>
     </row>
     <row r="424">
       <c r="A424" s="1" t="inlineStr">
@@ -15432,11 +14440,7 @@
           <t>Süanhwa (Siuan-houa) fou</t>
         </is>
       </c>
-      <c r="G425" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"original": "dans la mission"}}</t>
-        </is>
-      </c>
+      <c r="G425" t="inlineStr"/>
     </row>
     <row r="426">
       <c r="A426" s="1" t="inlineStr">
@@ -15469,11 +14473,7 @@
           <t>Sunwui (Sin-houei hien), Kwangtung</t>
         </is>
       </c>
-      <c r="G426" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q16666"}}</t>
-        </is>
-      </c>
+      <c r="G426" t="inlineStr"/>
     </row>
     <row r="427">
       <c r="A427" s="1" t="inlineStr">
@@ -15506,11 +14506,7 @@
           <t>Diocese de Reims</t>
         </is>
       </c>
-      <c r="G427" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q40898"}}</t>
-        </is>
-      </c>
+      <c r="G427" t="inlineStr"/>
     </row>
     <row r="428">
       <c r="A428" s="1" t="inlineStr">
@@ -15576,11 +14572,7 @@
           <t>Strasbourg</t>
         </is>
       </c>
-      <c r="G429" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q40898"}}</t>
-        </is>
-      </c>
+      <c r="G429" t="inlineStr"/>
     </row>
     <row r="430">
       <c r="A430" s="1" t="inlineStr">
@@ -15613,11 +14605,7 @@
           <t>Maché</t>
         </is>
       </c>
-      <c r="G430" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q6397"}}</t>
-        </is>
-      </c>
+      <c r="G430" t="inlineStr"/>
     </row>
     <row r="431">
       <c r="A431" s="1" t="inlineStr">
@@ -15650,11 +14638,7 @@
           <t>Vézelay, diocese de Autun</t>
         </is>
       </c>
-      <c r="G431" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q90"}}</t>
-        </is>
-      </c>
+      <c r="G431" t="inlineStr"/>
     </row>
     <row r="432">
       <c r="A432" s="1" t="inlineStr">
@@ -15687,11 +14671,7 @@
           <t>Verdun</t>
         </is>
       </c>
-      <c r="G432" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q40898"}}</t>
-        </is>
-      </c>
+      <c r="G432" t="inlineStr"/>
     </row>
     <row r="433">
       <c r="A433" s="1" t="inlineStr">
@@ -15790,11 +14770,7 @@
           <t>Cantão</t>
         </is>
       </c>
-      <c r="G435" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 17321231"}}</t>
-        </is>
-      </c>
+      <c r="G435" t="inlineStr"/>
     </row>
     <row r="436">
       <c r="A436" s="1" t="inlineStr">
@@ -15827,11 +14803,7 @@
           <t>Auvergne</t>
         </is>
       </c>
-      <c r="G436" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q7880"}}</t>
-        </is>
-      </c>
+      <c r="G436" t="inlineStr"/>
     </row>
     <row r="437">
       <c r="A437" s="1" t="inlineStr">
@@ -15864,11 +14836,7 @@
           <t>Toulon</t>
         </is>
       </c>
-      <c r="G437" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q6397"}}</t>
-        </is>
-      </c>
+      <c r="G437" t="inlineStr"/>
     </row>
     <row r="438">
       <c r="A438" s="1" t="inlineStr">
@@ -15967,11 +14935,7 @@
           <t>Thionville</t>
         </is>
       </c>
-      <c r="G440" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q40898"}}</t>
-        </is>
-      </c>
+      <c r="G440" t="inlineStr"/>
     </row>
     <row r="441">
       <c r="A441" s="1" t="inlineStr">
@@ -16004,11 +14968,7 @@
           <t>Pequim</t>
         </is>
       </c>
-      <c r="G441" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q956"}}</t>
-        </is>
-      </c>
+      <c r="G441" t="inlineStr"/>
     </row>
     <row r="442">
       <c r="A442" s="1" t="inlineStr">
@@ -16107,11 +15067,7 @@
           <t>Süanhwa, Hopei</t>
         </is>
       </c>
-      <c r="G444" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q90"}}</t>
-        </is>
-      </c>
+      <c r="G444" t="inlineStr"/>
     </row>
     <row r="445">
       <c r="A445" s="1" t="inlineStr">
@@ -16177,11 +15133,7 @@
           <t>Lescar, Béarn (paróquia de St. Julien de Lescar)</t>
         </is>
       </c>
-      <c r="G446" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 16800422"}}</t>
-        </is>
-      </c>
+      <c r="G446" t="inlineStr"/>
     </row>
     <row r="447">
       <c r="A447" s="1" t="inlineStr">
@@ -16214,11 +15166,7 @@
           <t>Kiang-si</t>
         </is>
       </c>
-      <c r="G447" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q14773"}}</t>
-        </is>
-      </c>
+      <c r="G447" t="inlineStr"/>
     </row>
     <row r="448">
       <c r="A448" s="1" t="inlineStr">
@@ -16350,11 +15298,7 @@
           <t>Ninove</t>
         </is>
       </c>
-      <c r="G451" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q162022", "original": "Malines"}}</t>
-        </is>
-      </c>
+      <c r="G451" t="inlineStr"/>
     </row>
     <row r="452">
       <c r="A452" s="1" t="inlineStr">
@@ -16387,11 +15331,7 @@
           <t>Hweichow (Houei-tcheou fou) (bairro de Ché-hien), Anhwei (Ngan-houei)</t>
         </is>
       </c>
-      <c r="G452" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q956"}}</t>
-        </is>
-      </c>
+      <c r="G452" t="inlineStr"/>
     </row>
     <row r="453">
       <c r="A453" s="1" t="inlineStr">
@@ -16556,11 +15496,7 @@
           <t>Hamburgo</t>
         </is>
       </c>
-      <c r="G457" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q45"}}</t>
-        </is>
-      </c>
+      <c r="G457" t="inlineStr"/>
     </row>
     <row r="458">
       <c r="A458" s="1" t="inlineStr">
@@ -16659,11 +15595,7 @@
           <t>Bombarral, diocese de Lisboa</t>
         </is>
       </c>
-      <c r="G460" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "alternativa"}}</t>
-        </is>
-      </c>
+      <c r="G460" t="inlineStr"/>
     </row>
     <row r="461">
       <c r="A461" s="1" t="inlineStr">
@@ -16795,11 +15727,7 @@
           <t>Azeitão, diocese de Lisboa</t>
         </is>
       </c>
-      <c r="G464" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "MMHM, p.91", "original": "?"}}</t>
-        </is>
-      </c>
+      <c r="G464" t="inlineStr"/>
     </row>
     <row r="465">
       <c r="A465" s="1" t="inlineStr">
@@ -16832,11 +15760,7 @@
           <t>Coimbra</t>
         </is>
       </c>
-      <c r="G465" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q597"}}</t>
-        </is>
-      </c>
+      <c r="G465" t="inlineStr"/>
     </row>
     <row r="466">
       <c r="A466" s="1" t="inlineStr">
@@ -16937,7 +15861,7 @@
       </c>
       <c r="G468" t="inlineStr">
         <is>
-          <t>Corrigido: local de entrada extra_info: {"value": {"comment": "@wikidata:Q45412 Em Coimbra no ano de 1582 segundo a Carta Annua de 1623 BA", "original": "?"}}</t>
+          <t>Corrigido: local de entrada</t>
         </is>
       </c>
     </row>
@@ -16972,11 +15896,7 @@
           <t>São João de Areias</t>
         </is>
       </c>
-      <c r="G469" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q45412"}}</t>
-        </is>
-      </c>
+      <c r="G469" t="inlineStr"/>
     </row>
     <row r="470">
       <c r="A470" s="1" t="inlineStr">
@@ -17207,11 +16127,7 @@
           <t>Sabugal, diocese de Lamego</t>
         </is>
       </c>
-      <c r="G476" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q597"}}</t>
-        </is>
-      </c>
+      <c r="G476" t="inlineStr"/>
     </row>
     <row r="477">
       <c r="A477" s="1" t="inlineStr">
@@ -17244,11 +16160,7 @@
           <t>Lisboa</t>
         </is>
       </c>
-      <c r="G477" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 1729"}}</t>
-        </is>
-      </c>
+      <c r="G477" t="inlineStr"/>
     </row>
     <row r="478">
       <c r="A478" s="1" t="inlineStr">
@@ -17281,11 +16193,7 @@
           <t>Portalegre</t>
         </is>
       </c>
-      <c r="G478" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q179948"}}</t>
-        </is>
-      </c>
+      <c r="G478" t="inlineStr"/>
     </row>
     <row r="479">
       <c r="A479" s="1" t="inlineStr">
@@ -17351,11 +16259,7 @@
           <t>Lisboa</t>
         </is>
       </c>
-      <c r="G480" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 1689"}}</t>
-        </is>
-      </c>
+      <c r="G480" t="inlineStr"/>
     </row>
     <row r="481">
       <c r="A481" s="1" t="inlineStr">
@@ -17487,11 +16391,7 @@
           <t>Portalegre</t>
         </is>
       </c>
-      <c r="G484" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "MMHM:p.155, com 19 anos", "original": "?"}}</t>
-        </is>
-      </c>
+      <c r="G484" t="inlineStr"/>
     </row>
     <row r="485">
       <c r="A485" s="1" t="inlineStr">
@@ -17557,11 +16457,7 @@
           <t>Coimbra</t>
         </is>
       </c>
-      <c r="G486" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q597"}}</t>
-        </is>
-      </c>
+      <c r="G486" t="inlineStr"/>
     </row>
     <row r="487">
       <c r="A487" s="1" t="inlineStr">
@@ -17594,11 +16490,7 @@
           <t>Chaves</t>
         </is>
       </c>
-      <c r="G487" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q597"}}</t>
-        </is>
-      </c>
+      <c r="G487" t="inlineStr"/>
     </row>
     <row r="488">
       <c r="A488" s="1" t="inlineStr">
@@ -17664,11 +16556,7 @@
           <t>Macau</t>
         </is>
       </c>
-      <c r="G489" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 19 ou 28"}}</t>
-        </is>
-      </c>
+      <c r="G489" t="inlineStr"/>
     </row>
     <row r="490">
       <c r="A490" s="1" t="inlineStr">
@@ -17734,11 +16622,7 @@
           <t>Redondo, diocese de Évora</t>
         </is>
       </c>
-      <c r="G491" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q179948"}}</t>
-        </is>
-      </c>
+      <c r="G491" t="inlineStr"/>
     </row>
     <row r="492">
       <c r="A492" s="1" t="inlineStr">
@@ -17771,11 +16655,7 @@
           <t>Lisboa</t>
         </is>
       </c>
-      <c r="G492" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "cerca de, estava no noviciado nesta data"}, "value": {"comment": "@wikidata:Q1171"}}</t>
-        </is>
-      </c>
+      <c r="G492" t="inlineStr"/>
     </row>
     <row r="493">
       <c r="A493" s="1" t="inlineStr">
@@ -17808,11 +16688,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G493" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q45412"}}</t>
-        </is>
-      </c>
+      <c r="G493" t="inlineStr"/>
     </row>
     <row r="494">
       <c r="A494" s="1" t="inlineStr">
@@ -17845,11 +16721,7 @@
           <t>Alcochete, diocese de Lisboa</t>
         </is>
       </c>
-      <c r="G494" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q45412"}}</t>
-        </is>
-      </c>
+      <c r="G494" t="inlineStr"/>
     </row>
     <row r="495">
       <c r="A495" s="1" t="inlineStr">
@@ -17882,11 +16754,7 @@
           <t>Sernancelhe, diocese de Lamego</t>
         </is>
       </c>
-      <c r="G495" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q17"}}</t>
-        </is>
-      </c>
+      <c r="G495" t="inlineStr"/>
     </row>
     <row r="496">
       <c r="A496" s="1" t="inlineStr">
@@ -17952,11 +16820,7 @@
           <t>Montemor-o-Velho, diocese de Coimbra</t>
         </is>
       </c>
-      <c r="G497" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q45412"}}</t>
-        </is>
-      </c>
+      <c r="G497" t="inlineStr"/>
     </row>
     <row r="498">
       <c r="A498" s="1" t="inlineStr">
@@ -18022,11 +16886,7 @@
           <t>Cadaval, diocese de Coimbra</t>
         </is>
       </c>
-      <c r="G499" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q597"}}</t>
-        </is>
-      </c>
+      <c r="G499" t="inlineStr"/>
     </row>
     <row r="500">
       <c r="A500" s="1" t="inlineStr">
@@ -18059,11 +16919,7 @@
           <t>Colónia</t>
         </is>
       </c>
-      <c r="G500" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q220", "original": "(Noviciado de Sant'Andrea al Quirinale)"}}</t>
-        </is>
-      </c>
+      <c r="G500" t="inlineStr"/>
     </row>
     <row r="501">
       <c r="A501" s="1" t="inlineStr">
@@ -18129,11 +16985,7 @@
           <t>Fulda</t>
         </is>
       </c>
-      <c r="G502" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q220"}}</t>
-        </is>
-      </c>
+      <c r="G502" t="inlineStr"/>
     </row>
     <row r="503">
       <c r="A503" s="1" t="inlineStr">
@@ -18166,11 +17018,7 @@
           <t>Gorizia</t>
         </is>
       </c>
-      <c r="G503" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "j\u00e1 padre"}, "value": {"comment": "[\u00c1ustria] @wikidata:Q1741"}}</t>
-        </is>
-      </c>
+      <c r="G503" t="inlineStr"/>
     </row>
     <row r="504">
       <c r="A504" s="1" t="inlineStr">
@@ -18203,11 +17051,7 @@
           <t>Sankt Florian</t>
         </is>
       </c>
-      <c r="G504" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "[\u00c1ustria] @wikidata:Q1741"}}</t>
-        </is>
-      </c>
+      <c r="G504" t="inlineStr"/>
     </row>
     <row r="505">
       <c r="A505" s="1" t="inlineStr">
@@ -18273,11 +17117,7 @@
           <t>Praga</t>
         </is>
       </c>
-      <c r="G506" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "[Rep\u00fablica Checa] @wikidata:Q14960"}}</t>
-        </is>
-      </c>
+      <c r="G506" t="inlineStr"/>
     </row>
     <row r="507">
       <c r="A507" s="1" t="inlineStr">
@@ -18343,11 +17183,7 @@
           <t>Polotsk</t>
         </is>
       </c>
-      <c r="G508" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "hoje Bielorr\u00fassia @wikidata:Q200797"}}</t>
-        </is>
-      </c>
+      <c r="G508" t="inlineStr"/>
     </row>
     <row r="509">
       <c r="A509" s="1" t="inlineStr">
@@ -18380,11 +17216,7 @@
           <t>Diocese de Constance (parte da Suábia) no grão-ducado de Bade</t>
         </is>
       </c>
-      <c r="G509" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q220"}}</t>
-        </is>
-      </c>
+      <c r="G509" t="inlineStr"/>
     </row>
     <row r="510">
       <c r="A510" s="1" t="inlineStr">
@@ -18417,11 +17249,7 @@
           <t>Split, Croácia</t>
         </is>
       </c>
-      <c r="G510" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q220"}}</t>
-        </is>
-      </c>
+      <c r="G510" t="inlineStr"/>
     </row>
     <row r="511">
       <c r="A511" s="1" t="inlineStr">
@@ -18454,11 +17282,7 @@
           <t>Žilina, Eslováquia</t>
         </is>
       </c>
-      <c r="G511" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 17291009"}, "value": {"comment": "@wikidata:Q39193"}}</t>
-        </is>
-      </c>
+      <c r="G511" t="inlineStr"/>
     </row>
     <row r="512">
       <c r="A512" s="1" t="inlineStr">
@@ -18524,11 +17348,7 @@
           <t>Cracóvia</t>
         </is>
       </c>
-      <c r="G513" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q31487"}}</t>
-        </is>
-      </c>
+      <c r="G513" t="inlineStr"/>
     </row>
     <row r="514">
       <c r="A514" s="1" t="inlineStr">
@@ -18561,11 +17381,7 @@
           <t>Penela, diocese de Coimbra</t>
         </is>
       </c>
-      <c r="G514" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q15041623", "original": "Lisboa, Arroios"}}</t>
-        </is>
-      </c>
+      <c r="G514" t="inlineStr"/>
     </row>
     <row r="515">
       <c r="A515" s="1" t="inlineStr">
@@ -18701,11 +17517,7 @@
           <t>Arcos, diocese de Coimbra</t>
         </is>
       </c>
-      <c r="G518" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "cerca de"}}</t>
-        </is>
-      </c>
+      <c r="G518" t="inlineStr"/>
     </row>
     <row r="519">
       <c r="A519" s="1" t="inlineStr">
@@ -18903,11 +17715,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G524" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "segundo Pf."}}</t>
-        </is>
-      </c>
+      <c r="G524" t="inlineStr"/>
     </row>
     <row r="525">
       <c r="A525" s="1" t="inlineStr">
@@ -18940,11 +17748,7 @@
           <t>Coimbra</t>
         </is>
       </c>
-      <c r="G525" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q45412"}}</t>
-        </is>
-      </c>
+      <c r="G525" t="inlineStr"/>
     </row>
     <row r="526">
       <c r="A526" s="1" t="inlineStr">
@@ -18977,11 +17781,7 @@
           <t>Lisboa</t>
         </is>
       </c>
-      <c r="G526" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 1663"}}</t>
-        </is>
-      </c>
+      <c r="G526" t="inlineStr"/>
     </row>
     <row r="527">
       <c r="A527" s="1" t="inlineStr">
@@ -19014,11 +17814,7 @@
           <t>Porto</t>
         </is>
       </c>
-      <c r="G527" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q597"}}</t>
-        </is>
-      </c>
+      <c r="G527" t="inlineStr"/>
     </row>
     <row r="528">
       <c r="A528" s="1" t="inlineStr">
@@ -19051,11 +17847,7 @@
           <t>Lisboa</t>
         </is>
       </c>
-      <c r="G528" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q597"}}</t>
-        </is>
-      </c>
+      <c r="G528" t="inlineStr"/>
     </row>
     <row r="529">
       <c r="A529" s="1" t="inlineStr">
@@ -19088,11 +17880,7 @@
           <t>Benasque, Huesca</t>
         </is>
       </c>
-      <c r="G529" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q31926034"}}</t>
-        </is>
-      </c>
+      <c r="G529" t="inlineStr"/>
     </row>
     <row r="530">
       <c r="A530" s="1" t="inlineStr">
@@ -19191,11 +17979,7 @@
           <t>Santa Comba Dão, diocese de Coimbra</t>
         </is>
       </c>
-      <c r="G532" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "a 15, 23 ou 25"}}</t>
-        </is>
-      </c>
+      <c r="G532" t="inlineStr"/>
     </row>
     <row r="533">
       <c r="A533" s="1" t="inlineStr">
@@ -19228,11 +18012,7 @@
           <t>Burghausen</t>
         </is>
       </c>
-      <c r="G533" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q494299"}}</t>
-        </is>
-      </c>
+      <c r="G533" t="inlineStr"/>
     </row>
     <row r="534">
       <c r="A534" s="1" t="inlineStr">
@@ -19265,11 +18045,7 @@
           <t>Frankenstein, Silésia</t>
         </is>
       </c>
-      <c r="G534" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "actual Eslov\u00e1quia @wikidata:Q145002"}}</t>
-        </is>
-      </c>
+      <c r="G534" t="inlineStr"/>
     </row>
     <row r="535">
       <c r="A535" s="1" t="inlineStr">
@@ -19302,11 +18078,7 @@
           <t>Munique</t>
         </is>
       </c>
-      <c r="G535" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q494299"}}</t>
-        </is>
-      </c>
+      <c r="G535" t="inlineStr"/>
     </row>
     <row r="536">
       <c r="A536" s="1" t="inlineStr">
@@ -19339,11 +18111,7 @@
           <t>Bolzano, diocese de Trento</t>
         </is>
       </c>
-      <c r="G536" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q494299"}}</t>
-        </is>
-      </c>
+      <c r="G536" t="inlineStr"/>
     </row>
     <row r="537">
       <c r="A537" s="1" t="inlineStr">
@@ -19409,11 +18177,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G538" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "novi\u00e7o"}}</t>
-        </is>
-      </c>
+      <c r="G538" t="inlineStr"/>
     </row>
     <row r="539">
       <c r="A539" s="1" t="inlineStr">
@@ -19578,11 +18342,7 @@
           <t>Tournai</t>
         </is>
       </c>
-      <c r="G543" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q173219"}}</t>
-        </is>
-      </c>
+      <c r="G543" t="inlineStr"/>
     </row>
     <row r="544">
       <c r="A544" s="1" t="inlineStr">
@@ -19615,11 +18375,7 @@
           <t>Montmédy</t>
         </is>
       </c>
-      <c r="G544" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q40898"}}</t>
-        </is>
-      </c>
+      <c r="G544" t="inlineStr"/>
     </row>
     <row r="545">
       <c r="A545" s="1" t="inlineStr">
@@ -19652,11 +18408,7 @@
           <t>China</t>
         </is>
       </c>
-      <c r="G545" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "vice-prov\u00edncia @wikidata:Q148"}}</t>
-        </is>
-      </c>
+      <c r="G545" t="inlineStr"/>
     </row>
     <row r="546">
       <c r="A546" s="1" t="inlineStr">
@@ -19722,11 +18474,7 @@
           <t>Blois</t>
         </is>
       </c>
-      <c r="G547" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q90"}}</t>
-        </is>
-      </c>
+      <c r="G547" t="inlineStr"/>
     </row>
     <row r="548">
       <c r="A548" s="1" t="inlineStr">
@@ -19759,11 +18507,7 @@
           <t>Sou-kiang fou, Kiangnan</t>
         </is>
       </c>
-      <c r="G548" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q956"}}</t>
-        </is>
-      </c>
+      <c r="G548" t="inlineStr"/>
     </row>
     <row r="549">
       <c r="A549" s="1" t="inlineStr">
@@ -19829,11 +18573,7 @@
           <t>Tarazona</t>
         </is>
       </c>
-      <c r="G550" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q31926034"}}</t>
-        </is>
-      </c>
+      <c r="G550" t="inlineStr"/>
     </row>
     <row r="551">
       <c r="A551" s="1" t="inlineStr">
@@ -19932,11 +18672,7 @@
           <t>China</t>
         </is>
       </c>
-      <c r="G553" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "diz que esteve em miss\u00e3o num semestre em 1681, n\u00e3o est\u00e1 no cat\u00e1logo de 1683"}}</t>
-        </is>
-      </c>
+      <c r="G553" t="inlineStr"/>
     </row>
     <row r="554">
       <c r="A554" s="1" t="inlineStr">
@@ -19969,11 +18705,7 @@
           <t>Saint-Malo</t>
         </is>
       </c>
-      <c r="G554" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q90"}}</t>
-        </is>
-      </c>
+      <c r="G554" t="inlineStr"/>
     </row>
     <row r="555">
       <c r="A555" s="1" t="inlineStr">
@@ -20006,11 +18738,7 @@
           <t>Kiangsi</t>
         </is>
       </c>
-      <c r="G555" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q4970"}}</t>
-        </is>
-      </c>
+      <c r="G555" t="inlineStr"/>
     </row>
     <row r="556">
       <c r="A556" s="1" t="inlineStr">
@@ -20043,11 +18771,7 @@
           <t>Josselin, Bretanha</t>
         </is>
       </c>
-      <c r="G556" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q90"}}</t>
-        </is>
-      </c>
+      <c r="G556" t="inlineStr"/>
     </row>
     <row r="557">
       <c r="A557" s="1" t="inlineStr">
@@ -20113,11 +18837,7 @@
           <t>Boémia</t>
         </is>
       </c>
-      <c r="G558" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "cerca de"}, "value": {"comment": "@wikidata:Q1171"}}</t>
-        </is>
-      </c>
+      <c r="G558" t="inlineStr"/>
     </row>
     <row r="559">
       <c r="A559" s="1" t="inlineStr">
@@ -20150,11 +18870,7 @@
           <t>Jimramov, República Checa</t>
         </is>
       </c>
-      <c r="G559" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "[Rep\u00fablica Checa] @wikidata:Q14960"}}</t>
-        </is>
-      </c>
+      <c r="G559" t="inlineStr"/>
     </row>
     <row r="560">
       <c r="A560" s="1" t="inlineStr">
@@ -20187,11 +18903,7 @@
           <t>Munique</t>
         </is>
       </c>
-      <c r="G560" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q494299"}}</t>
-        </is>
-      </c>
+      <c r="G560" t="inlineStr"/>
     </row>
     <row r="561">
       <c r="A561" s="1" t="inlineStr">
@@ -20224,11 +18936,7 @@
           <t>Würzburg, Baviera</t>
         </is>
       </c>
-      <c r="G561" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q1720", "original": "Mayence"}}</t>
-        </is>
-      </c>
+      <c r="G561" t="inlineStr"/>
     </row>
     <row r="562">
       <c r="A562" s="1" t="inlineStr">
@@ -20263,7 +18971,7 @@
       </c>
       <c r="G562" t="inlineStr">
         <is>
-          <t>destinado à China em 1785, viagem abortada extra_info: {"value": {"comment": "[\u00c1ustria] @wikidata:Q1741"}}</t>
+          <t>destinado à China em 1785, viagem abortada</t>
         </is>
       </c>
     </row>
@@ -20298,11 +19006,7 @@
           <t>Sarzana</t>
         </is>
       </c>
-      <c r="G563" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q220", "original": "(Noviciado de Sant'Andrea al Quirinale)"}}</t>
-        </is>
-      </c>
+      <c r="G563" t="inlineStr"/>
     </row>
     <row r="564">
       <c r="A564" s="1" t="inlineStr">
@@ -20335,11 +19039,7 @@
           <t>Sevilha</t>
         </is>
       </c>
-      <c r="G564" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q2868"}}</t>
-        </is>
-      </c>
+      <c r="G564" t="inlineStr"/>
     </row>
     <row r="565">
       <c r="A565" s="1" t="inlineStr">
@@ -20438,11 +19138,7 @@
           <t>Chaves</t>
         </is>
       </c>
-      <c r="G567" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q45412"}}</t>
-        </is>
-      </c>
+      <c r="G567" t="inlineStr"/>
     </row>
     <row r="568">
       <c r="A568" s="1" t="inlineStr">
@@ -20543,7 +19239,7 @@
       </c>
       <c r="G570" t="inlineStr">
         <is>
-          <t>antes entrara na ordem de Malta em 16120518 diz Dehergne «La première entrée — avant « l'âge de raison » — est une « E. de dévotion », désirée par ses parents, qui consacrent leur fils au Seigneur et le revêtent des habits de l'Ordre, les Chevaliers de Malte.» extra_info: {"value": {"comment": "[Sic\u00edlia] @wikidata:Q2656"}}</t>
+          <t>antes entrara na ordem de Malta em 16120518 diz Dehergne «La première entrée — avant « l'âge de raison » — est une « E. de dévotion », désirée par ses parents, qui consacrent leur fils au Seigneur et le revêtent des habits de l'Ordre, les Chevaliers de Malte.»</t>
         </is>
       </c>
     </row>
@@ -20578,11 +19274,7 @@
           <t>Lorraine</t>
         </is>
       </c>
-      <c r="G571" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q220"}}</t>
-        </is>
-      </c>
+      <c r="G571" t="inlineStr"/>
     </row>
     <row r="572">
       <c r="A572" s="1" t="inlineStr">
@@ -20615,11 +19307,7 @@
           <t>Touraine</t>
         </is>
       </c>
-      <c r="G572" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q90"}}</t>
-        </is>
-      </c>
+      <c r="G572" t="inlineStr"/>
     </row>
     <row r="573">
       <c r="A573" s="1" t="inlineStr">
@@ -20652,11 +19340,7 @@
           <t>Loches (Indre-et-Loire)</t>
         </is>
       </c>
-      <c r="G573" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 16661211"}}</t>
-        </is>
-      </c>
+      <c r="G573" t="inlineStr"/>
     </row>
     <row r="574">
       <c r="A574" s="1" t="inlineStr">
@@ -20689,11 +19373,7 @@
           <t>região d'Avranches</t>
         </is>
       </c>
-      <c r="G574" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q90"}}</t>
-        </is>
-      </c>
+      <c r="G574" t="inlineStr"/>
     </row>
     <row r="575">
       <c r="A575" s="1" t="inlineStr">
@@ -20726,11 +19406,7 @@
           <t>Bordeaux</t>
         </is>
       </c>
-      <c r="G575" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q1479"}}</t>
-        </is>
-      </c>
+      <c r="G575" t="inlineStr"/>
     </row>
     <row r="576">
       <c r="A576" s="1" t="inlineStr">
@@ -20796,11 +19472,7 @@
           <t>Kiangchow, Shansi</t>
         </is>
       </c>
-      <c r="G577" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q220"}}</t>
-        </is>
-      </c>
+      <c r="G577" t="inlineStr"/>
     </row>
     <row r="578">
       <c r="A578" s="1" t="inlineStr">
@@ -20899,11 +19571,7 @@
           <t>Clisson</t>
         </is>
       </c>
-      <c r="G580" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 17221128"}}</t>
-        </is>
-      </c>
+      <c r="G580" t="inlineStr"/>
     </row>
     <row r="581">
       <c r="A581" s="1" t="inlineStr">
@@ -20936,11 +19604,7 @@
           <t>Lyon</t>
         </is>
       </c>
-      <c r="G581" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q6397"}}</t>
-        </is>
-      </c>
+      <c r="G581" t="inlineStr"/>
     </row>
     <row r="582">
       <c r="A582" s="1" t="inlineStr">
@@ -20973,11 +19637,7 @@
           <t>Calais</t>
         </is>
       </c>
-      <c r="G582" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q90"}}</t>
-        </is>
-      </c>
+      <c r="G582" t="inlineStr"/>
     </row>
     <row r="583">
       <c r="A583" s="1" t="inlineStr">
@@ -21043,11 +19703,7 @@
           <t>Tours</t>
         </is>
       </c>
-      <c r="G584" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q90"}}</t>
-        </is>
-      </c>
+      <c r="G584" t="inlineStr"/>
     </row>
     <row r="585">
       <c r="A585" s="1" t="inlineStr">
@@ -21113,11 +19769,7 @@
           <t>Évora</t>
         </is>
       </c>
-      <c r="G586" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 15600325 ou Coimbra, 25-03-1560 MMHM"}, "value": {"comment": "@wikidata:Q45412 Domingues &amp; O Neil, IV: 2645. MMHM:p.226", "original": "?"}}</t>
-        </is>
-      </c>
+      <c r="G586" t="inlineStr"/>
     </row>
     <row r="587">
       <c r="A587" s="1" t="inlineStr">
@@ -21216,11 +19868,7 @@
           <t>Génova, Itália</t>
         </is>
       </c>
-      <c r="G589" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q1449"}}</t>
-        </is>
-      </c>
+      <c r="G589" t="inlineStr"/>
     </row>
     <row r="590">
       <c r="A590" s="1" t="inlineStr">
@@ -21286,11 +19934,7 @@
           <t>Mântua</t>
         </is>
       </c>
-      <c r="G591" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q1891"}}</t>
-        </is>
-      </c>
+      <c r="G591" t="inlineStr"/>
     </row>
     <row r="592">
       <c r="A592" s="1" t="inlineStr">
@@ -21323,11 +19967,7 @@
           <t>Alvito, diocese de Évora</t>
         </is>
       </c>
-      <c r="G592" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q179948"}}</t>
-        </is>
-      </c>
+      <c r="G592" t="inlineStr"/>
     </row>
     <row r="593">
       <c r="A593" s="1" t="inlineStr">
@@ -21393,11 +20033,7 @@
           <t>Lisboa</t>
         </is>
       </c>
-      <c r="G594" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "como \"indiferente\" ou auxiliar laico"}, "value": {"comment": "@wikidata:Q17"}}</t>
-        </is>
-      </c>
+      <c r="G594" t="inlineStr"/>
     </row>
     <row r="595">
       <c r="A595" s="1" t="inlineStr">
@@ -21430,11 +20066,7 @@
           <t>Valadares, diocese de Braga</t>
         </is>
       </c>
-      <c r="G595" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 17051224"}, "value": {"comment": "@wikidata:Q45412"}}</t>
-        </is>
-      </c>
+      <c r="G595" t="inlineStr"/>
     </row>
     <row r="596">
       <c r="A596" s="1" t="inlineStr">
@@ -21570,11 +20202,7 @@
           <t>Macau</t>
         </is>
       </c>
-      <c r="G599" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 16460000"}}</t>
-        </is>
-      </c>
+      <c r="G599" t="inlineStr"/>
     </row>
     <row r="600">
       <c r="A600" s="1" t="inlineStr">
@@ -21607,11 +20235,7 @@
           <t>Lisboa</t>
         </is>
       </c>
-      <c r="G600" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q597"}}</t>
-        </is>
-      </c>
+      <c r="G600" t="inlineStr"/>
     </row>
     <row r="601">
       <c r="A601" s="1" t="inlineStr">
@@ -21640,11 +20264,7 @@
           <t>Portugal</t>
         </is>
       </c>
-      <c r="G601" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q1171"}}</t>
-        </is>
-      </c>
+      <c r="G601" t="inlineStr"/>
     </row>
     <row r="602">
       <c r="A602" s="1" t="inlineStr">
@@ -21673,11 +20293,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G602" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q1171"}}</t>
-        </is>
-      </c>
+      <c r="G602" t="inlineStr"/>
     </row>
     <row r="603">
       <c r="A603" s="1" t="inlineStr">
@@ -21809,11 +20425,7 @@
           <t>Macau</t>
         </is>
       </c>
-      <c r="G606" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q4970"}}</t>
-        </is>
-      </c>
+      <c r="G606" t="inlineStr"/>
     </row>
     <row r="607">
       <c r="A607" s="1" t="inlineStr">
@@ -21945,11 +20557,7 @@
           <t>Macau</t>
         </is>
       </c>
-      <c r="G610" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 31"}, "value": {"comment": "@wikidata:Q1171"}}</t>
-        </is>
-      </c>
+      <c r="G610" t="inlineStr"/>
     </row>
     <row r="611">
       <c r="A611" s="1" t="inlineStr">
@@ -22048,11 +20656,7 @@
           <t>Polónia</t>
         </is>
       </c>
-      <c r="G613" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q643843", "original": "province de Masovie"}}</t>
-        </is>
-      </c>
+      <c r="G613" t="inlineStr"/>
     </row>
     <row r="614">
       <c r="A614" s="1" t="inlineStr">
@@ -22118,11 +20722,7 @@
           <t>Lisboa</t>
         </is>
       </c>
-      <c r="G615" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 16811103 ou 16811112 ou 16820000"}, "value": {"comment": "@wikidata:Q1171"}}</t>
-        </is>
-      </c>
+      <c r="G615" t="inlineStr"/>
     </row>
     <row r="616">
       <c r="A616" s="1" t="inlineStr">
@@ -22188,11 +20788,7 @@
           <t>Tancos, diocese de Lisboa</t>
         </is>
       </c>
-      <c r="G617" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "se for ele"}}</t>
-        </is>
-      </c>
+      <c r="G617" t="inlineStr"/>
     </row>
     <row r="618">
       <c r="A618" s="1" t="inlineStr">
@@ -22258,11 +20854,7 @@
           <t>Figueiró, diocese de Coimbra</t>
         </is>
       </c>
-      <c r="G619" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "estava j\u00e1 no noviciado"}}</t>
-        </is>
-      </c>
+      <c r="G619" t="inlineStr"/>
     </row>
     <row r="620">
       <c r="A620" s="1" t="inlineStr">
@@ -22295,11 +20887,7 @@
           <t>Figueiró-do-Campo, diocese de Coimbra</t>
         </is>
       </c>
-      <c r="G620" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 17481215"}, "value": {"comment": "@wikidata:Q597"}}</t>
-        </is>
-      </c>
+      <c r="G620" t="inlineStr"/>
     </row>
     <row r="621">
       <c r="A621" s="1" t="inlineStr">
@@ -22398,11 +20986,7 @@
           <t>Setúbal</t>
         </is>
       </c>
-      <c r="G623" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q179948"}}</t>
-        </is>
-      </c>
+      <c r="G623" t="inlineStr"/>
     </row>
     <row r="624">
       <c r="A624" s="1" t="inlineStr">
@@ -22536,7 +21120,7 @@
       </c>
       <c r="G627" t="inlineStr">
         <is>
-          <t>talvez tenha saído durante o noviciado extra_info: {"value": {"comment": "para a China"}}</t>
+          <t>talvez tenha saído durante o noviciado</t>
         </is>
       </c>
     </row>
@@ -22604,11 +21188,7 @@
           <t>Viseu</t>
         </is>
       </c>
-      <c r="G629" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q179948"}}</t>
-        </is>
-      </c>
+      <c r="G629" t="inlineStr"/>
     </row>
     <row r="630">
       <c r="A630" s="1" t="inlineStr">
@@ -22707,11 +21287,7 @@
           <t>Torre de Moncorvo, diocese de Braga</t>
         </is>
       </c>
-      <c r="G632" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q45412"}}</t>
-        </is>
-      </c>
+      <c r="G632" t="inlineStr"/>
     </row>
     <row r="633">
       <c r="A633" s="1" t="inlineStr">
@@ -22779,7 +21355,7 @@
       </c>
       <c r="G634" t="inlineStr">
         <is>
-          <t>segundo a entrada de Rhodes (677), este baptizou-o extra_info: {"date": {"comment": "vem com o P. Alexandre de Rhodes"}, "value": {"comment": "@wikidata:Q220"}}</t>
+          <t>segundo a entrada de Rhodes (677), este baptizou-o</t>
         </is>
       </c>
     </row>
@@ -22847,11 +21423,7 @@
           <t>Castelo Branco</t>
         </is>
       </c>
-      <c r="G636" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q45412 Segungo Dominguez, J. M., &amp; O\u2019Neill, C. (2001) II, 1113", "original": "?"}}</t>
-        </is>
-      </c>
+      <c r="G636" t="inlineStr"/>
     </row>
     <row r="637">
       <c r="A637" s="1" t="inlineStr">
@@ -22884,11 +21456,7 @@
           <t>Alpalhão, diocese de Portalegre</t>
         </is>
       </c>
-      <c r="G637" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q179948"}}</t>
-        </is>
-      </c>
+      <c r="G637" t="inlineStr"/>
     </row>
     <row r="638">
       <c r="A638" s="1" t="inlineStr">
@@ -22954,11 +21522,7 @@
           <t>São João Batista de Lobrigos, diocese do Porto</t>
         </is>
       </c>
-      <c r="G639" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q45412 Schutte, Monumenta historica japoniae I.,p.1180", "original": "?"}}</t>
-        </is>
-      </c>
+      <c r="G639" t="inlineStr"/>
     </row>
     <row r="640">
       <c r="A640" s="1" t="inlineStr">
@@ -23024,11 +21588,7 @@
           <t>Macau</t>
         </is>
       </c>
-      <c r="G641" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q14773"}}</t>
-        </is>
-      </c>
+      <c r="G641" t="inlineStr"/>
     </row>
     <row r="642">
       <c r="A642" s="1" t="inlineStr">
@@ -23094,11 +21654,7 @@
           <t>Montemor</t>
         </is>
       </c>
-      <c r="G643" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q1171"}}</t>
-        </is>
-      </c>
+      <c r="G643" t="inlineStr"/>
     </row>
     <row r="644">
       <c r="A644" s="1" t="inlineStr">
@@ -23131,11 +21687,7 @@
           <t>Coimbra</t>
         </is>
       </c>
-      <c r="G644" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q45412"}}</t>
-        </is>
-      </c>
+      <c r="G644" t="inlineStr"/>
     </row>
     <row r="645">
       <c r="A645" s="1" t="inlineStr">
@@ -23168,11 +21720,7 @@
           <t>Guemara, diocese de Braga</t>
         </is>
       </c>
-      <c r="G645" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 17290802"}}</t>
-        </is>
-      </c>
+      <c r="G645" t="inlineStr"/>
     </row>
     <row r="646">
       <c r="A646" s="1" t="inlineStr">
@@ -23205,11 +21753,7 @@
           <t>Moreta, diocese de Coimbra</t>
         </is>
       </c>
-      <c r="G646" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q597"}}</t>
-        </is>
-      </c>
+      <c r="G646" t="inlineStr"/>
     </row>
     <row r="647">
       <c r="A647" s="1" t="inlineStr">
@@ -23308,11 +21852,7 @@
           <t>Soure, diocese de Coimbra</t>
         </is>
       </c>
-      <c r="G649" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q45412"}}</t>
-        </is>
-      </c>
+      <c r="G649" t="inlineStr"/>
     </row>
     <row r="650">
       <c r="A650" s="1" t="inlineStr">
@@ -23345,11 +21885,7 @@
           <t>Lamego</t>
         </is>
       </c>
-      <c r="G650" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q45412"}}</t>
-        </is>
-      </c>
+      <c r="G650" t="inlineStr"/>
     </row>
     <row r="651">
       <c r="A651" s="1" t="inlineStr">
@@ -23514,11 +22050,7 @@
           <t>Évora</t>
         </is>
       </c>
-      <c r="G655" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q45412"}}</t>
-        </is>
-      </c>
+      <c r="G655" t="inlineStr"/>
     </row>
     <row r="656">
       <c r="A656" s="1" t="inlineStr">
@@ -23584,11 +22116,7 @@
           <t>Sousel, diocese de Évora</t>
         </is>
       </c>
-      <c r="G657" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q179948"}}</t>
-        </is>
-      </c>
+      <c r="G657" t="inlineStr"/>
     </row>
     <row r="658">
       <c r="A658" s="1" t="inlineStr">
@@ -23654,11 +22182,7 @@
           <t>Miranda do Douro, diocese de Bragança</t>
         </is>
       </c>
-      <c r="G659" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q597"}}</t>
-        </is>
-      </c>
+      <c r="G659" t="inlineStr"/>
     </row>
     <row r="660">
       <c r="A660" s="1" t="inlineStr">
@@ -23691,11 +22215,7 @@
           <t>Arraiolos, diocese de Évora</t>
         </is>
       </c>
-      <c r="G660" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "aparece inscrito, mas depois o seu nome \u00e9 repetio em \u00c9vora, 16970925, ter\u00e1 sa\u00eddo no entretanto?"}}</t>
-        </is>
-      </c>
+      <c r="G660" t="inlineStr"/>
     </row>
     <row r="661">
       <c r="A661" s="1" t="inlineStr">
@@ -23728,11 +22248,7 @@
           <t>Marvão, diocese de Portalegre</t>
         </is>
       </c>
-      <c r="G661" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "o cat\u00e1logo de 1717 diz 17170509, a primeira data vem do cat\u00e1logo de 1734"}}</t>
-        </is>
-      </c>
+      <c r="G661" t="inlineStr"/>
     </row>
     <row r="662">
       <c r="A662" s="1" t="inlineStr">
@@ -23798,11 +22314,7 @@
           <t>Dijon</t>
         </is>
       </c>
-      <c r="G663" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q40898"}}</t>
-        </is>
-      </c>
+      <c r="G663" t="inlineStr"/>
     </row>
     <row r="664">
       <c r="A664" s="1" t="inlineStr">
@@ -23835,11 +22347,7 @@
           <t>Estremoz, diocese de Évora</t>
         </is>
       </c>
-      <c r="G664" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q597"}}</t>
-        </is>
-      </c>
+      <c r="G664" t="inlineStr"/>
     </row>
     <row r="665">
       <c r="A665" s="1" t="inlineStr">
@@ -23938,11 +22446,7 @@
           <t>Trento</t>
         </is>
       </c>
-      <c r="G667" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q220"}}</t>
-        </is>
-      </c>
+      <c r="G667" t="inlineStr"/>
     </row>
     <row r="668">
       <c r="A668" s="1" t="inlineStr">
@@ -23975,11 +22479,7 @@
           <t>Lisboa</t>
         </is>
       </c>
-      <c r="G668" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q45412 MMHM:p.94 (ARSI Japsin 35 13)", "original": "?"}}</t>
-        </is>
-      </c>
+      <c r="G668" t="inlineStr"/>
     </row>
     <row r="669">
       <c r="A669" s="1" t="inlineStr">
@@ -24012,11 +22512,7 @@
           <t>S. Joaninho, diocese de Coimbra</t>
         </is>
       </c>
-      <c r="G669" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "para a China"}}</t>
-        </is>
-      </c>
+      <c r="G669" t="inlineStr"/>
     </row>
     <row r="670">
       <c r="A670" s="1" t="inlineStr">
@@ -24082,11 +22578,7 @@
           <t>Macau</t>
         </is>
       </c>
-      <c r="G671" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 1634"}}</t>
-        </is>
-      </c>
+      <c r="G671" t="inlineStr"/>
     </row>
     <row r="672">
       <c r="A672" s="1" t="inlineStr">
@@ -24119,11 +22611,7 @@
           <t>Aquitânia</t>
         </is>
       </c>
-      <c r="G672" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q1479"}}</t>
-        </is>
-      </c>
+      <c r="G672" t="inlineStr"/>
     </row>
     <row r="673">
       <c r="A673" s="1" t="inlineStr">
@@ -24156,11 +22644,7 @@
           <t>Lisboa</t>
         </is>
       </c>
-      <c r="G673" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q597"}}</t>
-        </is>
-      </c>
+      <c r="G673" t="inlineStr"/>
     </row>
     <row r="674">
       <c r="A674" s="1" t="inlineStr">
@@ -24193,11 +22677,7 @@
           <t>Atalaia, diocese de Lisboa</t>
         </is>
       </c>
-      <c r="G674" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q45412 MMHM:p.203 (Matias d'Amaia), Schutte, Monumenta historica japoniae I.1234", "original": "?"}}</t>
-        </is>
-      </c>
+      <c r="G674" t="inlineStr"/>
     </row>
     <row r="675">
       <c r="A675" s="1" t="inlineStr">
@@ -24263,11 +22743,7 @@
           <t>Coimbra</t>
         </is>
       </c>
-      <c r="G676" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q45412"}}</t>
-        </is>
-      </c>
+      <c r="G676" t="inlineStr"/>
     </row>
     <row r="677">
       <c r="A677" s="1" t="inlineStr">
@@ -24300,11 +22776,7 @@
           <t>Macerata</t>
         </is>
       </c>
-      <c r="G677" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q220", "original": "(Noviciado de Sant'Andrea al Quirinale)"}}</t>
-        </is>
-      </c>
+      <c r="G677" t="inlineStr"/>
     </row>
     <row r="678">
       <c r="A678" s="1" t="inlineStr">
@@ -24335,7 +22807,7 @@
       <c r="F678" t="inlineStr"/>
       <c r="G678" t="inlineStr">
         <is>
-          <t>depois de libertado da escravatura extra_info: {"date": {"comment": "[depois de 1615 que \u00e9 a data da persegui\u00e7\u00e3o ao padre Sebasti\u00e3o Fernandes- JRC]"}}</t>
+          <t>depois de libertado da escravatura</t>
         </is>
       </c>
     </row>
@@ -24370,11 +22842,7 @@
           <t>Pequim</t>
         </is>
       </c>
-      <c r="G679" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 17391100?"}, "value": {"comment": "? @wikidata:Q956"}}</t>
-        </is>
-      </c>
+      <c r="G679" t="inlineStr"/>
     </row>
     <row r="680">
       <c r="A680" s="1" t="inlineStr">
@@ -24407,11 +22875,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G680" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "segundo Ripa"}}</t>
-        </is>
-      </c>
+      <c r="G680" t="inlineStr"/>
     </row>
     <row r="681">
       <c r="A681" s="1" t="inlineStr">
@@ -24444,11 +22908,7 @@
           <t>Kouang-tong</t>
         </is>
       </c>
-      <c r="G681" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q90"}}</t>
-        </is>
-      </c>
+      <c r="G681" t="inlineStr"/>
     </row>
     <row r="682">
       <c r="A682" s="1" t="inlineStr">
@@ -24481,11 +22941,7 @@
           <t>Vannes</t>
         </is>
       </c>
-      <c r="G682" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q220"}}</t>
-        </is>
-      </c>
+      <c r="G682" t="inlineStr"/>
     </row>
     <row r="683">
       <c r="A683" s="1" t="inlineStr">
@@ -24518,11 +22974,7 @@
           <t>Celorico</t>
         </is>
       </c>
-      <c r="G683" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q1171"}}</t>
-        </is>
-      </c>
+      <c r="G683" t="inlineStr"/>
     </row>
     <row r="684">
       <c r="A684" s="1" t="inlineStr">
@@ -24555,11 +23007,7 @@
           <t>Caravaca de la Cruz, diocese de Cartagena</t>
         </is>
       </c>
-      <c r="G684" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q46940"}}</t>
-        </is>
-      </c>
+      <c r="G684" t="inlineStr"/>
     </row>
     <row r="685">
       <c r="A685" s="1" t="inlineStr">
@@ -24592,11 +23040,7 @@
           <t>Viena</t>
         </is>
       </c>
-      <c r="G685" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "[\u00c1ustria] @wikidata:Q1741"}}</t>
-        </is>
-      </c>
+      <c r="G685" t="inlineStr"/>
     </row>
     <row r="686">
       <c r="A686" s="1" t="inlineStr">
@@ -24629,11 +23073,7 @@
           <t>Lwów</t>
         </is>
       </c>
-      <c r="G686" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q31487"}}</t>
-        </is>
-      </c>
+      <c r="G686" t="inlineStr"/>
     </row>
     <row r="687">
       <c r="A687" s="1" t="inlineStr">
@@ -24666,11 +23106,7 @@
           <t>Munique</t>
         </is>
       </c>
-      <c r="G687" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q494299"}}</t>
-        </is>
-      </c>
+      <c r="G687" t="inlineStr"/>
     </row>
     <row r="688">
       <c r="A688" s="1" t="inlineStr">
@@ -24703,11 +23139,7 @@
           <t>Nanquim</t>
         </is>
       </c>
-      <c r="G688" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "\u00ablatinitate satis imbutus\u00bb"}, "value": {"comment": "@wikidata:Q597"}}</t>
-        </is>
-      </c>
+      <c r="G688" t="inlineStr"/>
     </row>
     <row r="689">
       <c r="A689" s="1" t="inlineStr">
@@ -24740,11 +23172,7 @@
           <t>Dijon (paróquia de St Jean)</t>
         </is>
       </c>
-      <c r="G689" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q40898"}}</t>
-        </is>
-      </c>
+      <c r="G689" t="inlineStr"/>
     </row>
     <row r="690">
       <c r="A690" s="1" t="inlineStr">
@@ -24810,11 +23238,7 @@
           <t>Douai</t>
         </is>
       </c>
-      <c r="G691" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q45"}}</t>
-        </is>
-      </c>
+      <c r="G691" t="inlineStr"/>
     </row>
     <row r="692">
       <c r="A692" s="1" t="inlineStr">
@@ -24847,11 +23271,7 @@
           <t>Spinazzola, Bari</t>
         </is>
       </c>
-      <c r="G692" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q220"}}</t>
-        </is>
-      </c>
+      <c r="G692" t="inlineStr"/>
     </row>
     <row r="693">
       <c r="A693" s="1" t="inlineStr">
@@ -24917,11 +23337,7 @@
           <t>Carapito ou Mangualde, diocese de Viseu</t>
         </is>
       </c>
-      <c r="G694" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q45412"}}</t>
-        </is>
-      </c>
+      <c r="G694" t="inlineStr"/>
     </row>
     <row r="695">
       <c r="A695" s="1" t="inlineStr">
@@ -24954,11 +23370,7 @@
           <t>Shiki, ilha de Amakusa</t>
         </is>
       </c>
-      <c r="G695" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "perto @wikidata:Q38234"}}</t>
-        </is>
-      </c>
+      <c r="G695" t="inlineStr"/>
     </row>
     <row r="696">
       <c r="A696" s="1" t="inlineStr">
@@ -24991,11 +23403,7 @@
           <t>Macau</t>
         </is>
       </c>
-      <c r="G696" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q14773"}}</t>
-        </is>
-      </c>
+      <c r="G696" t="inlineStr"/>
     </row>
     <row r="697">
       <c r="A697" s="1" t="inlineStr">
@@ -25094,11 +23502,7 @@
           <t>Pedroso, diocese do Porto</t>
         </is>
       </c>
-      <c r="G699" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 13, ou 17000311 ou 17050917"}, "value": {"comment": "@wikidata:Q597"}}</t>
-        </is>
-      </c>
+      <c r="G699" t="inlineStr"/>
     </row>
     <row r="700">
       <c r="A700" s="1" t="inlineStr">
@@ -25131,11 +23535,7 @@
           <t>Donauwörth</t>
         </is>
       </c>
-      <c r="G700" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q494299"}}</t>
-        </is>
-      </c>
+      <c r="G700" t="inlineStr"/>
     </row>
     <row r="701">
       <c r="A701" s="1" t="inlineStr">
@@ -25168,11 +23568,7 @@
           <t>Siena</t>
         </is>
       </c>
-      <c r="G701" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q220"}}</t>
-        </is>
-      </c>
+      <c r="G701" t="inlineStr"/>
     </row>
     <row r="702">
       <c r="A702" s="1" t="inlineStr">
@@ -25238,11 +23634,7 @@
           <t>Caltagirone, Sicília</t>
         </is>
       </c>
-      <c r="G703" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "[Sic\u00edlia] @wikidata:Q13666"}}</t>
-        </is>
-      </c>
+      <c r="G703" t="inlineStr"/>
     </row>
     <row r="704">
       <c r="A704" s="1" t="inlineStr">
@@ -25308,11 +23700,7 @@
           <t>Valladolid</t>
         </is>
       </c>
-      <c r="G705" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q46940"}}</t>
-        </is>
-      </c>
+      <c r="G705" t="inlineStr"/>
     </row>
     <row r="706">
       <c r="A706" s="1" t="inlineStr">
@@ -25345,11 +23733,7 @@
           <t>Dijon</t>
         </is>
       </c>
-      <c r="G706" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q40898"}}</t>
-        </is>
-      </c>
+      <c r="G706" t="inlineStr"/>
     </row>
     <row r="707">
       <c r="A707" s="1" t="inlineStr">
@@ -25382,11 +23766,7 @@
           <t>Compiègne</t>
         </is>
       </c>
-      <c r="G707" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q6397"}}</t>
-        </is>
-      </c>
+      <c r="G707" t="inlineStr"/>
     </row>
     <row r="708">
       <c r="A708" s="1" t="inlineStr">
@@ -25419,11 +23799,7 @@
           <t>Douai</t>
         </is>
       </c>
-      <c r="G708" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "admitido"}, "value": {"comment": "admitido, entra em Tournai @wikidata:Q193826"}}</t>
-        </is>
-      </c>
+      <c r="G708" t="inlineStr"/>
     </row>
     <row r="709">
       <c r="A709" s="1" t="inlineStr">
@@ -25456,11 +23832,7 @@
           <t>Douai</t>
         </is>
       </c>
-      <c r="G709" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q173219"}}</t>
-        </is>
-      </c>
+      <c r="G709" t="inlineStr"/>
     </row>
     <row r="710">
       <c r="A710" s="1" t="inlineStr">
@@ -25526,11 +23898,7 @@
           <t>Macau</t>
         </is>
       </c>
-      <c r="G711" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q597"}}</t>
-        </is>
-      </c>
+      <c r="G711" t="inlineStr"/>
     </row>
     <row r="712">
       <c r="A712" s="1" t="inlineStr">
@@ -25596,11 +23964,7 @@
           <t>Santarém</t>
         </is>
       </c>
-      <c r="G713" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q45412"}}</t>
-        </is>
-      </c>
+      <c r="G713" t="inlineStr"/>
     </row>
     <row r="714">
       <c r="A714" s="1" t="inlineStr">
@@ -25633,11 +23997,7 @@
           <t>Macau</t>
         </is>
       </c>
-      <c r="G714" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q1171"}}</t>
-        </is>
-      </c>
+      <c r="G714" t="inlineStr"/>
     </row>
     <row r="715">
       <c r="A715" s="1" t="inlineStr">
@@ -25769,11 +24129,7 @@
           <t>Casto Val Sabbia, Brescia</t>
         </is>
       </c>
-      <c r="G718" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "j\u00e1 era padre"}, "value": {"comment": "@wikidata:Q13362"}}</t>
-        </is>
-      </c>
+      <c r="G718" t="inlineStr"/>
     </row>
     <row r="719">
       <c r="A719" s="1" t="inlineStr">
@@ -25971,11 +24327,7 @@
           <t>Macau</t>
         </is>
       </c>
-      <c r="G724" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q17"}}</t>
-        </is>
-      </c>
+      <c r="G724" t="inlineStr"/>
     </row>
     <row r="725">
       <c r="A725" s="1" t="inlineStr">
@@ -26008,11 +24360,7 @@
           <t>Macau</t>
         </is>
       </c>
-      <c r="G725" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "catequista"}}</t>
-        </is>
-      </c>
+      <c r="G725" t="inlineStr"/>
     </row>
     <row r="726">
       <c r="A726" s="1" t="inlineStr">
@@ -26045,11 +24393,7 @@
           <t>Bordeaux</t>
         </is>
       </c>
-      <c r="G726" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 16730930"}}</t>
-        </is>
-      </c>
+      <c r="G726" t="inlineStr"/>
     </row>
     <row r="727">
       <c r="A727" s="1" t="inlineStr">
@@ -26082,11 +24426,7 @@
           <t>Kienchang, Kien-tch'ang fou, Kiangsi</t>
         </is>
       </c>
-      <c r="G727" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q4970"}}</t>
-        </is>
-      </c>
+      <c r="G727" t="inlineStr"/>
     </row>
     <row r="728">
       <c r="A728" s="1" t="inlineStr">
@@ -26119,11 +24459,7 @@
           <t>Vannes</t>
         </is>
       </c>
-      <c r="G728" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q90"}}</t>
-        </is>
-      </c>
+      <c r="G728" t="inlineStr"/>
     </row>
     <row r="729">
       <c r="A729" s="1" t="inlineStr">
@@ -26189,11 +24525,7 @@
           <t>Chen-si</t>
         </is>
       </c>
-      <c r="G730" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 29 de junho"}, "value": {"comment": "@wikidata:Q14773"}}</t>
-        </is>
-      </c>
+      <c r="G730" t="inlineStr"/>
     </row>
     <row r="731">
       <c r="A731" s="1" t="inlineStr">
@@ -26259,11 +24591,7 @@
           <t>Basto, diocese de Braga</t>
         </is>
       </c>
-      <c r="G732" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q597"}}</t>
-        </is>
-      </c>
+      <c r="G732" t="inlineStr"/>
     </row>
     <row r="733">
       <c r="A733" s="1" t="inlineStr">
@@ -26296,11 +24624,7 @@
           <t>Serpa, diocese de Évora</t>
         </is>
       </c>
-      <c r="G733" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q179948"}}</t>
-        </is>
-      </c>
+      <c r="G733" t="inlineStr"/>
     </row>
     <row r="734">
       <c r="A734" s="1" t="inlineStr">
@@ -26368,7 +24692,7 @@
       </c>
       <c r="G735" t="inlineStr">
         <is>
-          <t>saiu a primeira vez extra_info: {"value": {"comment": "@wikidata:Q45412"}}</t>
+          <t>saiu a primeira vez</t>
         </is>
       </c>
     </row>
@@ -26403,11 +24727,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G736" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q1171"}}</t>
-        </is>
-      </c>
+      <c r="G736" t="inlineStr"/>
     </row>
     <row r="737">
       <c r="A737" s="1" t="inlineStr">
@@ -26440,11 +24760,7 @@
           <t>Pombal</t>
         </is>
       </c>
-      <c r="G737" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "no mar, pela data de embarque seria em Lisboa?", "original": "in mari"}}</t>
-        </is>
-      </c>
+      <c r="G737" t="inlineStr"/>
     </row>
     <row r="738">
       <c r="A738" s="1" t="inlineStr">
@@ -26477,11 +24793,7 @@
           <t>Covilhã, diocese da Guarda</t>
         </is>
       </c>
-      <c r="G738" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 1581 segundo Wicki"}}</t>
-        </is>
-      </c>
+      <c r="G738" t="inlineStr"/>
     </row>
     <row r="739">
       <c r="A739" s="1" t="inlineStr">
@@ -26547,11 +24859,7 @@
           <t>Santo André</t>
         </is>
       </c>
-      <c r="G740" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q597"}}</t>
-        </is>
-      </c>
+      <c r="G740" t="inlineStr"/>
     </row>
     <row r="741">
       <c r="A741" s="1" t="inlineStr">
@@ -26584,11 +24892,7 @@
           <t>Antequera, diocese de Málaga, Andaluzia</t>
         </is>
       </c>
-      <c r="G741" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "j\u00e1 era padre"}, "value": {"comment": "@wikidata:Q46940"}}</t>
-        </is>
-      </c>
+      <c r="G741" t="inlineStr"/>
     </row>
     <row r="742">
       <c r="A742" s="1" t="inlineStr">
@@ -26654,11 +24958,7 @@
           <t>Mourão, diocese de Évora</t>
         </is>
       </c>
-      <c r="G743" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "segundo Louren\u00e7o e Pinto 2023, p. 37"}}</t>
-        </is>
-      </c>
+      <c r="G743" t="inlineStr"/>
     </row>
     <row r="744">
       <c r="A744" s="1" t="inlineStr">
@@ -26691,11 +24991,7 @@
           <t>Coimbra</t>
         </is>
       </c>
-      <c r="G744" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q45412"}}</t>
-        </is>
-      </c>
+      <c r="G744" t="inlineStr"/>
     </row>
     <row r="745">
       <c r="A745" s="1" t="inlineStr">
@@ -26728,11 +25024,7 @@
           <t>Saragoça</t>
         </is>
       </c>
-      <c r="G745" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q46940", "original": "de Henares"}}</t>
-        </is>
-      </c>
+      <c r="G745" t="inlineStr"/>
     </row>
     <row r="746">
       <c r="A746" s="1" t="inlineStr">
@@ -26798,11 +25090,7 @@
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="G747" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q220"}}</t>
-        </is>
-      </c>
+      <c r="G747" t="inlineStr"/>
     </row>
     <row r="748">
       <c r="A748" s="1" t="inlineStr">
@@ -26835,11 +25123,7 @@
           <t>Loures, diocese de Lisboa</t>
         </is>
       </c>
-      <c r="G748" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 16320000"}}</t>
-        </is>
-      </c>
+      <c r="G748" t="inlineStr"/>
     </row>
     <row r="749">
       <c r="A749" s="1" t="inlineStr">
@@ -26934,11 +25218,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="G751" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q1171"}}</t>
-        </is>
-      </c>
+      <c r="G751" t="inlineStr"/>
     </row>
     <row r="752">
       <c r="A752" s="1" t="inlineStr">
@@ -27037,11 +25317,7 @@
           <t>Gorizia</t>
         </is>
       </c>
-      <c r="G754" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "[\u00c1ustria] @wikidata:Q1741"}}</t>
-        </is>
-      </c>
+      <c r="G754" t="inlineStr"/>
     </row>
     <row r="755">
       <c r="A755" s="1" t="inlineStr">
@@ -27074,11 +25350,7 @@
           <t>Angoulême (paróquia de Notre-Dame de Beaulieu)</t>
         </is>
       </c>
-      <c r="G755" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q1479"}}</t>
-        </is>
-      </c>
+      <c r="G755" t="inlineStr"/>
     </row>
     <row r="756">
       <c r="A756" s="1" t="inlineStr">
@@ -27111,11 +25383,7 @@
           <t>Menen, Bélgica</t>
         </is>
       </c>
-      <c r="G756" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q173219"}}</t>
-        </is>
-      </c>
+      <c r="G756" t="inlineStr"/>
     </row>
     <row r="757">
       <c r="A757" s="1" t="inlineStr">
@@ -27214,11 +25482,7 @@
           <t>Tourcoing</t>
         </is>
       </c>
-      <c r="G759" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q173219"}}</t>
-        </is>
-      </c>
+      <c r="G759" t="inlineStr"/>
     </row>
     <row r="760">
       <c r="A760" s="1" t="inlineStr">
@@ -27251,11 +25515,7 @@
           <t>Pequim</t>
         </is>
       </c>
-      <c r="G760" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "depois dos seus estudos"}, "value": {"comment": "@wikidata:Q90"}}</t>
-        </is>
-      </c>
+      <c r="G760" t="inlineStr"/>
     </row>
     <row r="761">
       <c r="A761" s="1" t="inlineStr">
@@ -27321,11 +25581,7 @@
           <t>Angers</t>
         </is>
       </c>
-      <c r="G762" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q90"}}</t>
-        </is>
-      </c>
+      <c r="G762" t="inlineStr"/>
     </row>
     <row r="763">
       <c r="A763" s="1" t="inlineStr">
@@ -27358,11 +25614,7 @@
           <t>Diocese de Avignon</t>
         </is>
       </c>
-      <c r="G763" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q456"}}</t>
-        </is>
-      </c>
+      <c r="G763" t="inlineStr"/>
     </row>
     <row r="764">
       <c r="A764" s="1" t="inlineStr">
@@ -27428,11 +25680,7 @@
           <t>Rouen</t>
         </is>
       </c>
-      <c r="G765" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q90"}}</t>
-        </is>
-      </c>
+      <c r="G765" t="inlineStr"/>
     </row>
     <row r="766">
       <c r="A766" s="1" t="inlineStr">
@@ -27531,11 +25779,7 @@
           <t>Diocese de Mans</t>
         </is>
       </c>
-      <c r="G768" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q90"}}</t>
-        </is>
-      </c>
+      <c r="G768" t="inlineStr"/>
     </row>
     <row r="769">
       <c r="A769" s="1" t="inlineStr">
@@ -27634,11 +25878,7 @@
           <t>Diocese de Albi</t>
         </is>
       </c>
-      <c r="G771" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "Toulouse? @wikidata:Q7880"}}</t>
-        </is>
-      </c>
+      <c r="G771" t="inlineStr"/>
     </row>
     <row r="772">
       <c r="A772" s="1" t="inlineStr">
@@ -27671,11 +25911,7 @@
           <t>Embrun</t>
         </is>
       </c>
-      <c r="G772" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q6397"}}</t>
-        </is>
-      </c>
+      <c r="G772" t="inlineStr"/>
     </row>
     <row r="773">
       <c r="A773" s="1" t="inlineStr">
@@ -27708,11 +25944,7 @@
           <t>Shaohing (Chao-hing fou, Tchö-kiang)</t>
         </is>
       </c>
-      <c r="G773" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q956"}}</t>
-        </is>
-      </c>
+      <c r="G773" t="inlineStr"/>
     </row>
     <row r="774">
       <c r="A774" s="1" t="inlineStr">
@@ -27745,11 +25977,7 @@
           <t>Champagne, Turny (Yonne)</t>
         </is>
       </c>
-      <c r="G774" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 17440730"}, "value": {"comment": "@wikidata:Q40898"}}</t>
-        </is>
-      </c>
+      <c r="G774" t="inlineStr"/>
     </row>
     <row r="775">
       <c r="A775" s="1" t="inlineStr">
@@ -27782,11 +26010,7 @@
           <t>Limoges</t>
         </is>
       </c>
-      <c r="G775" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q1479"}}</t>
-        </is>
-      </c>
+      <c r="G775" t="inlineStr"/>
     </row>
     <row r="776">
       <c r="A776" s="1" t="inlineStr">
@@ -27819,11 +26043,7 @@
           <t>Limoges</t>
         </is>
       </c>
-      <c r="G776" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q1479"}}</t>
-        </is>
-      </c>
+      <c r="G776" t="inlineStr"/>
     </row>
     <row r="777">
       <c r="A777" s="1" t="inlineStr">
@@ -27889,11 +26109,7 @@
           <t>Louviers, diocese de Evreux</t>
         </is>
       </c>
-      <c r="G778" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q90"}}</t>
-        </is>
-      </c>
+      <c r="G778" t="inlineStr"/>
     </row>
     <row r="779">
       <c r="A779" s="1" t="inlineStr">
@@ -27992,11 +26208,7 @@
           <t>Lyon</t>
         </is>
       </c>
-      <c r="G781" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q456"}}</t>
-        </is>
-      </c>
+      <c r="G781" t="inlineStr"/>
     </row>
     <row r="782">
       <c r="A782" s="1" t="inlineStr">
@@ -28062,11 +26274,7 @@
           <t>Douai</t>
         </is>
       </c>
-      <c r="G783" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q220"}}</t>
-        </is>
-      </c>
+      <c r="G783" t="inlineStr"/>
     </row>
     <row r="784">
       <c r="A784" s="1" t="inlineStr">
@@ -28099,11 +26307,7 @@
           <t>Diocese de Rodez</t>
         </is>
       </c>
-      <c r="G784" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "em 1758 n\u00e3o era ainda Padre"}}</t>
-        </is>
-      </c>
+      <c r="G784" t="inlineStr"/>
     </row>
     <row r="785">
       <c r="A785" s="1" t="inlineStr">
@@ -28136,11 +26340,7 @@
           <t>Pont-à-Mousson</t>
         </is>
       </c>
-      <c r="G785" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q40898"}}</t>
-        </is>
-      </c>
+      <c r="G785" t="inlineStr"/>
     </row>
     <row r="786">
       <c r="A786" s="1" t="inlineStr">
@@ -28173,11 +26373,7 @@
           <t>Gand</t>
         </is>
       </c>
-      <c r="G786" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q162022", "original": "Malines"}}</t>
-        </is>
-      </c>
+      <c r="G786" t="inlineStr"/>
     </row>
     <row r="787">
       <c r="A787" s="1" t="inlineStr">
@@ -28243,11 +26439,7 @@
           <t>Génova</t>
         </is>
       </c>
-      <c r="G788" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q220"}}</t>
-        </is>
-      </c>
+      <c r="G788" t="inlineStr"/>
     </row>
     <row r="789">
       <c r="A789" s="1" t="inlineStr">
@@ -28445,11 +26637,7 @@
           <t>Lisboa</t>
         </is>
       </c>
-      <c r="G794" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q597"}}</t>
-        </is>
-      </c>
+      <c r="G794" t="inlineStr"/>
     </row>
     <row r="795">
       <c r="A795" s="1" t="inlineStr">
@@ -28482,11 +26670,7 @@
           <t>Normandia</t>
         </is>
       </c>
-      <c r="G795" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "? @wikidata:Q14773"}}</t>
-        </is>
-      </c>
+      <c r="G795" t="inlineStr"/>
     </row>
     <row r="796">
       <c r="A796" s="1" t="inlineStr">
@@ -28519,11 +26703,7 @@
           <t>Reiningue</t>
         </is>
       </c>
-      <c r="G796" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q494299"}}</t>
-        </is>
-      </c>
+      <c r="G796" t="inlineStr"/>
     </row>
     <row r="797">
       <c r="A797" s="1" t="inlineStr">
@@ -28556,11 +26736,7 @@
           <t>Mora, diocese de Évora</t>
         </is>
       </c>
-      <c r="G797" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 15721228"}}</t>
-        </is>
-      </c>
+      <c r="G797" t="inlineStr"/>
     </row>
     <row r="798">
       <c r="A798" s="1" t="inlineStr">
@@ -28593,11 +26769,7 @@
           <t>Coruche, diocese de Évora</t>
         </is>
       </c>
-      <c r="G798" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q179948"}}</t>
-        </is>
-      </c>
+      <c r="G798" t="inlineStr"/>
     </row>
     <row r="799">
       <c r="A799" s="1" t="inlineStr">
@@ -28630,11 +26802,7 @@
           <t>Lecce, Itália</t>
         </is>
       </c>
-      <c r="G799" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q2634"}}</t>
-        </is>
-      </c>
+      <c r="G799" t="inlineStr"/>
     </row>
     <row r="800">
       <c r="A800" s="1" t="inlineStr">
@@ -28700,11 +26868,7 @@
           <t>Semide, diocese de Coimbra</t>
         </is>
       </c>
-      <c r="G801" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q597", "original": "Lisboa, Arroios"}}</t>
-        </is>
-      </c>
+      <c r="G801" t="inlineStr"/>
     </row>
     <row r="802">
       <c r="A802" s="1" t="inlineStr">
@@ -28737,11 +26901,7 @@
           <t>Macau</t>
         </is>
       </c>
-      <c r="G802" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "cerca de"}}</t>
-        </is>
-      </c>
+      <c r="G802" t="inlineStr"/>
     </row>
     <row r="803">
       <c r="A803" s="1" t="inlineStr">
@@ -28774,11 +26934,7 @@
           <t>Lisboa</t>
         </is>
       </c>
-      <c r="G803" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q45412 MMHM:p.205 (Sebastian da Maia, da Maya, d'Amaya)", "original": "?"}}</t>
-        </is>
-      </c>
+      <c r="G803" t="inlineStr"/>
     </row>
     <row r="804">
       <c r="A804" s="1" t="inlineStr">
@@ -28811,11 +26967,7 @@
           <t>Lagéas</t>
         </is>
       </c>
-      <c r="G804" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q1171"}}</t>
-        </is>
-      </c>
+      <c r="G804" t="inlineStr"/>
     </row>
     <row r="805">
       <c r="A805" s="1" t="inlineStr">
@@ -28848,11 +27000,7 @@
           <t>Besteiros, diocese de Viseu</t>
         </is>
       </c>
-      <c r="G805" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q45412"}}</t>
-        </is>
-      </c>
+      <c r="G805" t="inlineStr"/>
     </row>
     <row r="806">
       <c r="A806" s="1" t="inlineStr">
@@ -28885,11 +27033,7 @@
           <t>Castro Daire, diocese de Lamego</t>
         </is>
       </c>
-      <c r="G806" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "([Sch\u00fctte, 1975, p. 1321] Sebasti\u00e3o Vieira, nasc Castro de Aire, Lamego, E. Coimbra 3-2-1591", "original": "?"}}</t>
-        </is>
-      </c>
+      <c r="G806" t="inlineStr"/>
     </row>
     <row r="807">
       <c r="A807" s="1" t="inlineStr">
@@ -28922,11 +27066,7 @@
           <t>Sunwui (Sin-houei)</t>
         </is>
       </c>
-      <c r="G807" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "fim do m\u00eas"}, "value": {"comment": "@wikidata: Q1346617", "original": "Chao-tcheou fou"}}</t>
-        </is>
-      </c>
+      <c r="G807" t="inlineStr"/>
     </row>
     <row r="808">
       <c r="A808" s="1" t="inlineStr">
@@ -28992,11 +27132,7 @@
           <t>Coimbra</t>
         </is>
       </c>
-      <c r="G809" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q45412 Dehergne n\u00e3o especifica local, Brockey estudos Filosofia e Teologia em Coimbra", "original": "?"}}</t>
-        </is>
-      </c>
+      <c r="G809" t="inlineStr"/>
     </row>
     <row r="810">
       <c r="A810" s="1" t="inlineStr">
@@ -29029,11 +27165,7 @@
           <t>Borba, diocese de Évora</t>
         </is>
       </c>
-      <c r="G810" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q179948"}}</t>
-        </is>
-      </c>
+      <c r="G810" t="inlineStr"/>
     </row>
     <row r="811">
       <c r="A811" s="1" t="inlineStr">
@@ -29099,11 +27231,7 @@
           <t>Vila Pouca do Campo, diocese de Coimbra</t>
         </is>
       </c>
-      <c r="G812" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q1171"}}</t>
-        </is>
-      </c>
+      <c r="G812" t="inlineStr"/>
     </row>
     <row r="813">
       <c r="A813" s="1" t="inlineStr">
@@ -29235,11 +27363,7 @@
           <t>Wenns, Áustria</t>
         </is>
       </c>
-      <c r="G816" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q494299"}}</t>
-        </is>
-      </c>
+      <c r="G816" t="inlineStr"/>
     </row>
     <row r="817">
       <c r="A817" s="1" t="inlineStr">
@@ -29272,11 +27396,7 @@
           <t>Changshu, Tch'ang-chou, Kiangnan</t>
         </is>
       </c>
-      <c r="G817" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q14773"}}</t>
-        </is>
-      </c>
+      <c r="G817" t="inlineStr"/>
     </row>
     <row r="818">
       <c r="A818" s="1" t="inlineStr">
@@ -29309,11 +27429,7 @@
           <t>Orvieto</t>
         </is>
       </c>
-      <c r="G818" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q220", "original": "(Noviciado de Sant'Andrea al Quirinale)"}}</t>
-        </is>
-      </c>
+      <c r="G818" t="inlineStr"/>
     </row>
     <row r="819">
       <c r="A819" s="1" t="inlineStr">
@@ -29379,11 +27495,7 @@
           <t>Hangchow, Chekiang</t>
         </is>
       </c>
-      <c r="G820" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 17490202"}}</t>
-        </is>
-      </c>
+      <c r="G820" t="inlineStr"/>
     </row>
     <row r="821">
       <c r="A821" s="1" t="inlineStr">
@@ -29478,11 +27590,7 @@
           <t>Liège</t>
         </is>
       </c>
-      <c r="G823" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q220"}}</t>
-        </is>
-      </c>
+      <c r="G823" t="inlineStr"/>
     </row>
     <row r="824">
       <c r="A824" s="1" t="inlineStr">
@@ -29515,11 +27623,7 @@
           <t>Flandres</t>
         </is>
       </c>
-      <c r="G824" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q597"}}</t>
-        </is>
-      </c>
+      <c r="G824" t="inlineStr"/>
     </row>
     <row r="825">
       <c r="A825" s="1" t="inlineStr">
@@ -29552,11 +27656,7 @@
           <t>Hangchow, Chekiang</t>
         </is>
       </c>
-      <c r="G825" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q14773"}}</t>
-        </is>
-      </c>
+      <c r="G825" t="inlineStr"/>
     </row>
     <row r="826">
       <c r="A826" s="1" t="inlineStr">
@@ -29589,11 +27689,7 @@
           <t>Kiangsi</t>
         </is>
       </c>
-      <c r="G826" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 30 ou 29"}}</t>
-        </is>
-      </c>
+      <c r="G826" t="inlineStr"/>
     </row>
     <row r="827">
       <c r="A827" s="1" t="inlineStr">
@@ -29626,11 +27722,7 @@
           <t>Pequim</t>
         </is>
       </c>
-      <c r="G827" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q90"}}</t>
-        </is>
-      </c>
+      <c r="G827" t="inlineStr"/>
     </row>
     <row r="828">
       <c r="A828" s="1" t="inlineStr">
@@ -29663,11 +27755,7 @@
           <t>Pequim</t>
         </is>
       </c>
-      <c r="G828" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 1 de novembro"}}</t>
-        </is>
-      </c>
+      <c r="G828" t="inlineStr"/>
     </row>
     <row r="829">
       <c r="A829" s="1" t="inlineStr">
@@ -29700,11 +27788,7 @@
           <t>Bruxelas</t>
         </is>
       </c>
-      <c r="G829" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q162022", "original": "Malines"}}</t>
-        </is>
-      </c>
+      <c r="G829" t="inlineStr"/>
     </row>
     <row r="830">
       <c r="A830" s="1" t="inlineStr">
@@ -29737,11 +27821,7 @@
           <t>Santarém</t>
         </is>
       </c>
-      <c r="G830" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q45412"}}</t>
-        </is>
-      </c>
+      <c r="G830" t="inlineStr"/>
     </row>
     <row r="831">
       <c r="A831" s="1" t="inlineStr">
@@ -29774,11 +27854,7 @@
           <t>Diocese de Auxerre</t>
         </is>
       </c>
-      <c r="G831" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q90"}}</t>
-        </is>
-      </c>
+      <c r="G831" t="inlineStr"/>
     </row>
     <row r="832">
       <c r="A832" s="1" t="inlineStr">
@@ -29811,11 +27887,7 @@
           <t>Sousa, diocese de Coimbra</t>
         </is>
       </c>
-      <c r="G832" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 17480000"}}</t>
-        </is>
-      </c>
+      <c r="G832" t="inlineStr"/>
     </row>
     <row r="833">
       <c r="A833" s="1" t="inlineStr">
@@ -29848,11 +27920,7 @@
           <t>S. Martinho do Vale, diocese de Braga</t>
         </is>
       </c>
-      <c r="G833" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q45412"}}</t>
-        </is>
-      </c>
+      <c r="G833" t="inlineStr"/>
     </row>
     <row r="834">
       <c r="A834" s="1" t="inlineStr">
@@ -29885,11 +27953,7 @@
           <t>Viana do Alentejo, diocese de Évora</t>
         </is>
       </c>
-      <c r="G834" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 1646"}, "value": {"comment": "@wikidata:Q179948"}}</t>
-        </is>
-      </c>
+      <c r="G834" t="inlineStr"/>
     </row>
     <row r="835">
       <c r="A835" s="1" t="inlineStr">
@@ -29955,11 +28019,7 @@
           <t>Angers</t>
         </is>
       </c>
-      <c r="G836" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q90"}}</t>
-        </is>
-      </c>
+      <c r="G836" t="inlineStr"/>
     </row>
     <row r="837">
       <c r="A837" s="1" t="inlineStr">
@@ -29992,11 +28052,7 @@
           <t>Modena</t>
         </is>
       </c>
-      <c r="G837" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "[Assume-se Novellara, nascido a 40km] @wikidata:Q111218", "original": "Novellario"}}</t>
-        </is>
-      </c>
+      <c r="G837" t="inlineStr"/>
     </row>
     <row r="838">
       <c r="A838" s="1" t="inlineStr">
@@ -30029,11 +28085,7 @@
           <t>Frioul (no palácio dos condes d'Attimis)</t>
         </is>
       </c>
-      <c r="G838" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "en fait 17251129"}, "value": {"comment": "@wikidata:Q1891"}}</t>
-        </is>
-      </c>
+      <c r="G838" t="inlineStr"/>
     </row>
     <row r="839">
       <c r="A839" s="1" t="inlineStr">
@@ -30066,11 +28118,7 @@
           <t>Lisboa</t>
         </is>
       </c>
-      <c r="G839" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "MMHM:p.38, 17 anos", "original": "?"}}</t>
-        </is>
-      </c>
+      <c r="G839" t="inlineStr"/>
     </row>
     <row r="840">
       <c r="A840" s="1" t="inlineStr">
@@ -30202,11 +28250,7 @@
           <t>Lisboa</t>
         </is>
       </c>
-      <c r="G843" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "@wikidata:Q14773"}}</t>
-        </is>
-      </c>
+      <c r="G843" t="inlineStr"/>
     </row>
     <row r="844">
       <c r="A844" s="1" t="inlineStr">
@@ -30239,11 +28283,7 @@
           <t>Vamias, diocese de Viseu</t>
         </is>
       </c>
-      <c r="G844" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "destinado \u00e0 China"}, "value": {"comment": "@wikidata:Q597", "original": "Lisboa, Arroios"}}</t>
-        </is>
-      </c>
+      <c r="G844" t="inlineStr"/>
     </row>
     <row r="845">
       <c r="A845" s="1" t="inlineStr">
@@ -30276,11 +28316,7 @@
           <t>Coreia</t>
         </is>
       </c>
-      <c r="G845" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "mesmo antes do seu mart\u00edrio"}, "value": {"comment": "@wikidata:Q17"}}</t>
-        </is>
-      </c>
+      <c r="G845" t="inlineStr"/>
     </row>
     <row r="846">
       <c r="A846" s="1" t="inlineStr">
@@ -30412,11 +28448,7 @@
           <t>Praga</t>
         </is>
       </c>
-      <c r="G849" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "[Rep\u00fablica Checa] @wikidata:Q14960"}}</t>
-        </is>
-      </c>
+      <c r="G849" t="inlineStr"/>
     </row>
     <row r="850">
       <c r="A850" s="1" t="inlineStr">
@@ -30449,11 +28481,7 @@
           <t>Kadaň, Boémia</t>
         </is>
       </c>
-      <c r="G850" t="inlineStr">
-        <is>
-          <t>extra_info: {"value": {"comment": "[Rep\u00fablica Checa] @wikidata:Q14960"}}</t>
-        </is>
-      </c>
+      <c r="G850" t="inlineStr"/>
     </row>
     <row r="851">
       <c r="A851" s="1" t="inlineStr">
@@ -30486,11 +28514,7 @@
           <t>Coimbra</t>
         </is>
       </c>
-      <c r="G851" t="inlineStr">
-        <is>
-          <t>extra_info: {"date": {"comment": "ou 17361104"}}</t>
-        </is>
-      </c>
+      <c r="G851" t="inlineStr"/>
     </row>
     <row r="852">
       <c r="A852" s="1" t="inlineStr">
